--- a/Outputs.xlsx
+++ b/Outputs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F29E69-8197-4B0B-8748-700CA743B47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecastSMI_allPeriods" sheetId="1" r:id="rId1"/>
@@ -12,17 +13,22 @@
     <sheet name="intSMI_FX1.20" sheetId="3" r:id="rId3"/>
     <sheet name="intSMI_SD75quantile" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="469">
   <si>
     <t>&gt; forecastSMI</t>
   </si>
@@ -711,240 +717,84 @@
     <t>$IntTrainError</t>
   </si>
   <si>
-    <t>[1] 35.40494</t>
-  </si>
-  <si>
     <t>$IntTestError</t>
   </si>
   <si>
-    <t>[1] 43.1448</t>
-  </si>
-  <si>
     <t>$IntTestPValue.p.value</t>
   </si>
   <si>
-    <t>[1] 1.727403e-190</t>
-  </si>
-  <si>
     <t>$IntVarImp.SDdomBanksdir</t>
   </si>
   <si>
-    <t>[1] 87.15804</t>
-  </si>
-  <si>
     <t>$IntVarImp.SMIprev</t>
   </si>
   <si>
-    <t>[1] 54.26782</t>
-  </si>
-  <si>
     <t>$IntVarImp.Libor3M_CHF</t>
   </si>
   <si>
-    <t>[1] 23.79887</t>
-  </si>
-  <si>
     <t>$IntVarImp.SDofDomBanks</t>
   </si>
   <si>
-    <t>[1] 6.528867</t>
-  </si>
-  <si>
     <t>$IntVarImp.CHFUSD</t>
   </si>
   <si>
-    <t>[1] 5.588393</t>
-  </si>
-  <si>
     <t>$IntVarImp.CHFEUR</t>
   </si>
   <si>
-    <t>[1] 5.178465</t>
-  </si>
-  <si>
     <t>$IntVarImp.ChgSDdomBanks</t>
   </si>
   <si>
-    <t>[1] 3.761699</t>
-  </si>
-  <si>
     <t>$IntVarImp.Gov3yr</t>
   </si>
   <si>
-    <t>[1] 2.994696</t>
-  </si>
-  <si>
     <t>$IntVarImp.Gov10yr</t>
   </si>
   <si>
-    <t>[1] 2.774562</t>
-  </si>
-  <si>
     <t>$NoIntTrainError</t>
   </si>
   <si>
-    <t>[1] 40.16565</t>
-  </si>
-  <si>
     <t>$NoIntTestError</t>
   </si>
   <si>
-    <t>[1] 49.20109</t>
-  </si>
-  <si>
     <t>$NoIntTestPValue.p.value</t>
   </si>
   <si>
-    <t>[1] 2.159934e-05</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.SDdomBanksdir</t>
   </si>
   <si>
-    <t>[1] 38.51826</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.CHFUSD</t>
   </si>
   <si>
-    <t>[1] 19.82078</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.Libor3M_CHF</t>
   </si>
   <si>
-    <t>[1] 17.43124</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.ChgSDdomBanks</t>
   </si>
   <si>
-    <t>[1] 13.64863</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.Gov3yr</t>
   </si>
   <si>
-    <t>[1] 13.3062</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.SDofDomBanks</t>
   </si>
   <si>
-    <t>[1] 11.6078</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.Gov10yr</t>
   </si>
   <si>
-    <t>[1] 3.9485</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.SMIprev</t>
   </si>
   <si>
-    <t>[1] 2.469348</t>
-  </si>
-  <si>
     <t>$NoIntVarImp.CHFEUR</t>
   </si>
   <si>
-    <t>[1] 1.433913</t>
-  </si>
-  <si>
     <t>$WelchSDDirPValue</t>
   </si>
   <si>
-    <t>[1] 7.081045e-84</t>
-  </si>
-  <si>
     <t>$WelchSDPValue</t>
   </si>
   <si>
-    <t>[1] 0.0008876137</t>
-  </si>
-  <si>
     <t>[1] "interventionC5"</t>
   </si>
   <si>
-    <t>[1] 35.40776</t>
-  </si>
-  <si>
-    <t>[1] 43.306</t>
-  </si>
-  <si>
-    <t>[1] 5.923989e-173</t>
-  </si>
-  <si>
-    <t>[1] 51.79706</t>
-  </si>
-  <si>
-    <t>[1] 31.61576</t>
-  </si>
-  <si>
-    <t>[1] 7.902903</t>
-  </si>
-  <si>
-    <t>[1] 2.332086</t>
-  </si>
-  <si>
-    <t>[1] 1.676012</t>
-  </si>
-  <si>
-    <t>[1] 1.470962</t>
-  </si>
-  <si>
-    <t>[1] 1.20959</t>
-  </si>
-  <si>
-    <t>[1] 1.098457</t>
-  </si>
-  <si>
-    <t>[1] 0.897174</t>
-  </si>
-  <si>
-    <t>[1] 40.30815</t>
-  </si>
-  <si>
-    <t>[1] 49.24501</t>
-  </si>
-  <si>
-    <t>[1] 3.006029e-05</t>
-  </si>
-  <si>
-    <t>[1] 36.77229</t>
-  </si>
-  <si>
-    <t>[1] 15.87223</t>
-  </si>
-  <si>
-    <t>[1] 14.847</t>
-  </si>
-  <si>
-    <t>[1] 10.3329</t>
-  </si>
-  <si>
-    <t>[1] 7.00036</t>
-  </si>
-  <si>
-    <t>[1] 6.694187</t>
-  </si>
-  <si>
-    <t>[1] 3.032485</t>
-  </si>
-  <si>
-    <t>[1] 2.892386</t>
-  </si>
-  <si>
-    <t>[1] 2.556158</t>
-  </si>
-  <si>
-    <t>[1] 6.260934e-16</t>
-  </si>
-  <si>
-    <t>[1] 1.010448e-07</t>
-  </si>
-  <si>
     <t>&gt; InterventionCurrentSMI_Sd75</t>
   </si>
   <si>
@@ -1020,82 +870,577 @@
     <t>[1] 6.045897e-47</t>
   </si>
   <si>
-    <t>[1] 32.95616</t>
-  </si>
-  <si>
-    <t>[1] 42.47919</t>
-  </si>
-  <si>
-    <t>[1] 4.553248e-148</t>
-  </si>
-  <si>
-    <t>[1] 91.51399</t>
-  </si>
-  <si>
-    <t>[1] 22.04218</t>
-  </si>
-  <si>
-    <t>[1] 20.49321</t>
-  </si>
-  <si>
-    <t>[1] 9.361071</t>
-  </si>
-  <si>
-    <t>[1] 7.042204</t>
-  </si>
-  <si>
-    <t>[1] 5.975813</t>
-  </si>
-  <si>
-    <t>[1] 5.021897</t>
-  </si>
-  <si>
-    <t>[1] 4.128608</t>
-  </si>
-  <si>
-    <t>[1] 43.27179</t>
-  </si>
-  <si>
-    <t>[1] 50.23026</t>
-  </si>
-  <si>
-    <t>[1] 0.1294698</t>
-  </si>
-  <si>
-    <t>[1] 65.99874</t>
-  </si>
-  <si>
-    <t>[1] 14.34856</t>
-  </si>
-  <si>
-    <t>[1] 11.31992</t>
-  </si>
-  <si>
-    <t>[1] 7.246692</t>
-  </si>
-  <si>
-    <t>[1] 5.647949</t>
-  </si>
-  <si>
-    <t>[1] 2.558897</t>
-  </si>
-  <si>
-    <t>[1] 2.517667</t>
-  </si>
-  <si>
-    <t>[1] 1.796641</t>
-  </si>
-  <si>
-    <t>[1] 3.270768e-24</t>
-  </si>
-  <si>
-    <t>[1] 1.473193e-38</t>
+    <t>\begin{table}[ht]</t>
+  </si>
+  <si>
+    <t>\centering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \hline\hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   \hline</t>
+  </si>
+  <si>
+    <t>\end{tabular}</t>
+  </si>
+  <si>
+    <t>\end{table}</t>
+  </si>
+  <si>
+    <t>SDdomBanksdir</t>
+  </si>
+  <si>
+    <t>SDofDomBanks</t>
+  </si>
+  <si>
+    <t>SMIprev</t>
+  </si>
+  <si>
+    <t>Gov3yr</t>
+  </si>
+  <si>
+    <t>CHFUSD</t>
+  </si>
+  <si>
+    <t>Gov10yr</t>
+  </si>
+  <si>
+    <t>Libor3M_CHF</t>
+  </si>
+  <si>
+    <t>CHFEUR</t>
+  </si>
+  <si>
+    <t>$`IntTrainError`</t>
+  </si>
+  <si>
+    <t>[1] 35.39074</t>
+  </si>
+  <si>
+    <t>[1] 42.90113</t>
+  </si>
+  <si>
+    <t>[1] 3.236177e-193</t>
+  </si>
+  <si>
+    <t>[1] 89.44803</t>
+  </si>
+  <si>
+    <t>[1] 55.66236</t>
+  </si>
+  <si>
+    <t>[1] 23.87921</t>
+  </si>
+  <si>
+    <t>[1] 6.078745</t>
+  </si>
+  <si>
+    <t>[1] 5.632037</t>
+  </si>
+  <si>
+    <t>[1] 5.236142</t>
+  </si>
+  <si>
+    <t>[1] 3.157469</t>
+  </si>
+  <si>
+    <t>[1] 2.681687</t>
+  </si>
+  <si>
+    <t>[1] 2.25321</t>
+  </si>
+  <si>
+    <t>[1] 40.17484</t>
+  </si>
+  <si>
+    <t>[1] 49.12939</t>
+  </si>
+  <si>
+    <t>[1] 3.198019e-07</t>
+  </si>
+  <si>
+    <t>[1] 39.35717</t>
+  </si>
+  <si>
+    <t>[1] 19.39683</t>
+  </si>
+  <si>
+    <t>[1] 16.86922</t>
+  </si>
+  <si>
+    <t>[1] 16.10055</t>
+  </si>
+  <si>
+    <t>[1] 12.8903</t>
+  </si>
+  <si>
+    <t>[1] 10.38277</t>
+  </si>
+  <si>
+    <t>[1] 5.382875</t>
+  </si>
+  <si>
+    <t>[1] 4.231797</t>
+  </si>
+  <si>
+    <t>[1] 2.12797</t>
+  </si>
+  <si>
+    <t>[1] 6.917382e-92</t>
+  </si>
+  <si>
+    <t>[1] 1.973022e-05</t>
+  </si>
+  <si>
+    <t>[1] 35.50133</t>
+  </si>
+  <si>
+    <t>[1] 43.15216</t>
+  </si>
+  <si>
+    <t>[1] 1.87623e-190</t>
+  </si>
+  <si>
+    <t>[1] 52.77046</t>
+  </si>
+  <si>
+    <t>[1] 30.74901</t>
+  </si>
+  <si>
+    <t>[1] 8.238496</t>
+  </si>
+  <si>
+    <t>[1] 2.048559</t>
+  </si>
+  <si>
+    <t>[1] 1.620808</t>
+  </si>
+  <si>
+    <t>[1] 1.521323</t>
+  </si>
+  <si>
+    <t>[1] 1.172037</t>
+  </si>
+  <si>
+    <t>[1] 1.01204</t>
+  </si>
+  <si>
+    <t>[1] 0.8672684</t>
+  </si>
+  <si>
+    <t>[1] 40.20534</t>
+  </si>
+  <si>
+    <t>[1] 49.48462</t>
+  </si>
+  <si>
+    <t>[1] 0.003403553</t>
+  </si>
+  <si>
+    <t>[1] 37.58186</t>
+  </si>
+  <si>
+    <t>[1] 13.57149</t>
+  </si>
+  <si>
+    <t>[1] 11.70081</t>
+  </si>
+  <si>
+    <t>[1] 11.65583</t>
+  </si>
+  <si>
+    <t>[1] 8.523074</t>
+  </si>
+  <si>
+    <t>[1] 8.157783</t>
+  </si>
+  <si>
+    <t>[1] 3.529263</t>
+  </si>
+  <si>
+    <t>[1] 2.656001</t>
+  </si>
+  <si>
+    <t>[1] 2.623894</t>
+  </si>
+  <si>
+    <t>[1] 7.229343e-16</t>
+  </si>
+  <si>
+    <t>[1] 3.467045e-08</t>
+  </si>
+  <si>
+    <t>ChgSDdomBanks</t>
+  </si>
+  <si>
+    <t>[1] 32.72584</t>
+  </si>
+  <si>
+    <t>[1] 43.1131</t>
+  </si>
+  <si>
+    <t>[1] 4.16283e-140</t>
+  </si>
+  <si>
+    <t>[1] 87.32558</t>
+  </si>
+  <si>
+    <t>[1] 24.87181</t>
+  </si>
+  <si>
+    <t>[1] 17.03225</t>
+  </si>
+  <si>
+    <t>[1] 9.900901</t>
+  </si>
+  <si>
+    <t>[1] 6.346959</t>
+  </si>
+  <si>
+    <t>[1] 5.725601</t>
+  </si>
+  <si>
+    <t>[1] 3.853413</t>
+  </si>
+  <si>
+    <t>[1] 3.427248</t>
+  </si>
+  <si>
+    <t>[1] 43.46392</t>
+  </si>
+  <si>
+    <t>[1] 50.29201</t>
+  </si>
+  <si>
+    <t>[1] 0.06780446</t>
+  </si>
+  <si>
+    <t>[1] 69.27781</t>
+  </si>
+  <si>
+    <t>[1] 12.2976</t>
+  </si>
+  <si>
+    <t>[1] 10.77802</t>
+  </si>
+  <si>
+    <t>[1] 7.553067</t>
+  </si>
+  <si>
+    <t>[1] 6.072268</t>
+  </si>
+  <si>
+    <t>[1] 2.979459</t>
+  </si>
+  <si>
+    <t>[1] 1.752242</t>
+  </si>
+  <si>
+    <t>[1] 1.442577</t>
+  </si>
+  <si>
+    <t>[1] 1.078478e-13</t>
+  </si>
+  <si>
+    <t>[1] 2.984368e-55</t>
+  </si>
+  <si>
+    <t>52.77</t>
+  </si>
+  <si>
+    <t>89.45</t>
+  </si>
+  <si>
+    <t>30.75</t>
+  </si>
+  <si>
+    <t>55.66</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>23.88</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>noint</t>
+  </si>
+  <si>
+    <t>37.58</t>
+  </si>
+  <si>
+    <t>39.36</t>
+  </si>
+  <si>
+    <t>13.57</t>
+  </si>
+  <si>
+    <t>16.87</t>
+  </si>
+  <si>
+    <t>11.70</t>
+  </si>
+  <si>
+    <t>19.40</t>
+  </si>
+  <si>
+    <t>11.66</t>
+  </si>
+  <si>
+    <t>16.10</t>
+  </si>
+  <si>
+    <t>8.52</t>
+  </si>
+  <si>
+    <t>10.38</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
+    <t>12.89</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>\caption{C5.0 output for the FX Intervention Set (CHF/EUR &lt; 1.20). Train Error 35.5\% / 40.2\%. Test Error 43.05\%*** / 49.3\%**. }</t>
+  </si>
+  <si>
+    <t>\label{Output IntFX}</t>
+  </si>
+  <si>
+    <t>\begin{tabular}{||c c c c c||}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Variable importance &amp; Splits (Int) &amp; Usage (Int) &amp; Splits (NoInt) &amp; Usage (NoInt)\\ [0.5ex] </t>
+  </si>
+  <si>
+    <t>10.37</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>20.49</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>9.36</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>62.15</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>11.32</t>
+  </si>
+  <si>
+    <t>7.58</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>[1] 32.48123</t>
+  </si>
+  <si>
+    <t>[1] 42.71102</t>
+  </si>
+  <si>
+    <t>[1] 6.536198e-303</t>
+  </si>
+  <si>
+    <t>[1] 66.06749</t>
+  </si>
+  <si>
+    <t>[1] 10.7686</t>
+  </si>
+  <si>
+    <t>[1] 8.538899</t>
+  </si>
+  <si>
+    <t>[1] 4.195184</t>
+  </si>
+  <si>
+    <t>[1] 4.184096</t>
+  </si>
+  <si>
+    <t>[1] 2.136453</t>
+  </si>
+  <si>
+    <t>[1] 2.136097</t>
+  </si>
+  <si>
+    <t>[1] 1.973179</t>
+  </si>
+  <si>
+    <t>[1] 43.36722</t>
+  </si>
+  <si>
+    <t>[1] 50.28709</t>
+  </si>
+  <si>
+    <t>[1] 0.009477735</t>
+  </si>
+  <si>
+    <t>[1] 60.44622</t>
+  </si>
+  <si>
+    <t>[1] 11.12832</t>
+  </si>
+  <si>
+    <t>[1] 9.082097</t>
+  </si>
+  <si>
+    <t>[1] 7.577161</t>
+  </si>
+  <si>
+    <t>[1] 4.892213</t>
+  </si>
+  <si>
+    <t>[1] 4.077971</t>
+  </si>
+  <si>
+    <t>[1] 1.594649</t>
+  </si>
+  <si>
+    <t>[1] 1.201367</t>
+  </si>
+  <si>
+    <t>[1] 0.0007883038</t>
+  </si>
+  <si>
+    <t>[1] 2.142242e-71</t>
+  </si>
+  <si>
+    <t>\caption{C5.0 output for the large SD Changes Intervention Set (75% Quantile of absolute Changes). Train Error 32.5\% / 43.4\%. Test Error 42.9\%*** / 50.3\%**. }</t>
+  </si>
+  <si>
+    <t>\label{Output IntSD}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,7 +1470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,6 +1480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1166,6 +1517,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1445,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5127,20 +5482,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="4" width="35.42578125" customWidth="1"/>
+    <col min="1" max="2" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>179</v>
       </c>
@@ -5148,7 +5504,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>227</v>
       </c>
@@ -5156,523 +5512,829 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="I16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="I18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="I19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" t="s">
+        <v>392</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" t="s">
+        <v>394</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f>D22&amp;" &amp; "&amp;E22&amp;" &amp; "&amp;F22&amp;" &amp; "&amp;G22&amp;" &amp; "&amp;H22&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 52.77 &amp; 89.45 &amp; 37.58 &amp; 39.36 \\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H23" t="s">
+        <v>410</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" ref="I23:I30" si="0">D23&amp;" &amp; "&amp;E23&amp;" &amp; "&amp;F23&amp;" &amp; "&amp;G23&amp;" &amp; "&amp;H23&amp;" \\"</f>
+        <v>SMIprev &amp; 30.75 &amp; 55.66 &amp; 2.62 &amp; 4.23 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" t="s">
+        <v>399</v>
+      </c>
+      <c r="H24" t="s">
+        <v>400</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Libor3M_CHF &amp; 8.24 &amp; 23.88 &amp; 11.66 &amp; 16.10 \\</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" t="s">
+        <v>404</v>
+      </c>
+      <c r="I25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SDofDomBanks &amp; 2.05 &amp; 6.08 &amp; 8.16 &amp; 12.89 \\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ChgSDdomBanks &amp; 1.62 &amp; 3.16 &amp; 8.52 &amp; 10.38 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" t="s">
+        <v>407</v>
+      </c>
+      <c r="H27" t="s">
+        <v>408</v>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFEUR &amp; 1.52 &amp; 5.63 &amp; 2.66 &amp; 2.13 \\</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" t="s">
+        <v>397</v>
+      </c>
+      <c r="H28" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFUSD &amp; 1.17 &amp; 5.24 &amp; 11.70 &amp; 19.40 \\</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" t="s">
+        <v>406</v>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov10yr &amp; 1.01 &amp; 2.25 &amp; 3.53 &amp; 5.38 \\</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" t="s">
+        <v>389</v>
+      </c>
+      <c r="F30" t="s">
+        <v>390</v>
+      </c>
+      <c r="G30" t="s">
+        <v>395</v>
+      </c>
+      <c r="H30" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f>D30&amp;" &amp; "&amp;E30&amp;" &amp; "&amp;F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" \\ [1ex]"</f>
+        <v>Gov3yr &amp; 0.87 &amp; 2.68 &amp; 13.57 &amp; 16.87 \\ [1ex]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="I33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="I34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
@@ -5686,544 +6348,982 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="D33:F41">
+    <sortCondition descending="1" ref="E33:E41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="J7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="J8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="J9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="J10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="J11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13">
+        <v>66.06</v>
+      </c>
+      <c r="G13">
+        <v>87.33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>427</v>
+      </c>
+      <c r="I13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" ref="J13:J19" si="0">E13&amp;" &amp; "&amp;F13&amp;" &amp; "&amp;G13&amp;" &amp; "&amp;H13&amp;" &amp; "&amp;I13&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 66.06 &amp; 87.33 &amp; 62.15 &amp; 66.00 \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="E14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14">
+        <v>24.87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>441</v>
+      </c>
+      <c r="I14" t="s">
+        <v>442</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SDofDomBanks &amp; 10.37 &amp; 24.87 &amp; 0.31 &amp; 2.52 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G15" t="s">
+        <v>417</v>
+      </c>
+      <c r="H15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SMIprev &amp; 8.00 &amp; 20.49 &amp; 7.58 &amp; 14.35 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" t="s">
+        <v>419</v>
+      </c>
+      <c r="H16" t="s">
+        <v>433</v>
+      </c>
+      <c r="I16" t="s">
+        <v>434</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov3yr &amp; 4.13 &amp; 9.36 &amp; 6.79 &amp; 5.65 \\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="E17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" t="s">
+        <v>420</v>
+      </c>
+      <c r="G17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I17" t="s">
+        <v>438</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFUSD &amp; 3.77 &amp; 5.98 &amp; 4.74 &amp; 7.25 \\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" t="s">
+        <v>440</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov10yr &amp; 2.46 &amp; 7.04 &amp; 1.44 &amp; 1.80 \\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H19" t="s">
+        <v>429</v>
+      </c>
+      <c r="I19" t="s">
+        <v>430</v>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Libor3M_CHF &amp; 2.10 &amp; 5.02 &amp; 11.42 &amp; 11.32 \\</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="E20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" t="s">
+        <v>435</v>
+      </c>
+      <c r="I20" t="s">
+        <v>436</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f>E20&amp;" &amp; "&amp;F20&amp;" &amp; "&amp;G20&amp;" &amp; "&amp;H20&amp;" &amp; "&amp;I20&amp;" \\ [1ex]"</f>
+        <v>CHFEUR &amp; 1.90 &amp; 4.13 &amp; 5.57 &amp; 2.56 \\ [1ex]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="J21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="J23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="J24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="J25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="B52" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="B58" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>280</v>
+        <v>254</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E29:G36">
+    <sortCondition descending="1" ref="F29:F36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Outputs.xlsx
+++ b/Outputs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F29E69-8197-4B0B-8748-700CA743B47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="forecastSMI_allPeriods" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="intSMI_FX1.20" sheetId="3" r:id="rId3"/>
     <sheet name="intSMI_SD75quantile" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="547">
   <si>
     <t>&gt; forecastSMI</t>
   </si>
@@ -39,279 +38,141 @@
     <t>$preCapTrainError</t>
   </si>
   <si>
-    <t>[1] 29.27354</t>
-  </si>
-  <si>
     <t>$preCapTestError</t>
   </si>
   <si>
-    <t>[1] 52.75918</t>
-  </si>
-  <si>
     <t>$preCapTestPValue.p.value</t>
   </si>
   <si>
-    <t>[1] 6.306369e-55</t>
-  </si>
-  <si>
     <t>$preCapVarImp.SMIdir</t>
   </si>
   <si>
-    <t>[1] 23.04795</t>
-  </si>
-  <si>
     <t>$preCapVarImp.SDdomBanksdir</t>
   </si>
   <si>
-    <t>[1] 21.01792</t>
-  </si>
-  <si>
     <t>$preCapVarImp.ChgSDdomBanks</t>
   </si>
   <si>
-    <t>[1] 13.25432</t>
-  </si>
-  <si>
     <t>$preCapVarImp.SDofDomBanks</t>
   </si>
   <si>
-    <t>[1] 10.06971</t>
-  </si>
-  <si>
     <t>$preCapVarImp.CHFUSD</t>
   </si>
   <si>
-    <t>[1] 7.674295</t>
-  </si>
-  <si>
     <t>$preCapVarImp.SMI</t>
   </si>
   <si>
-    <t>[1] 5.937422</t>
-  </si>
-  <si>
     <t>$preCapVarImp.RetSMI</t>
   </si>
   <si>
-    <t>[1] 4.35197</t>
-  </si>
-  <si>
     <t>$preCapVarImp.Gov10yr</t>
   </si>
   <si>
-    <t>[1] 4.284691</t>
-  </si>
-  <si>
     <t>$preCapVarImp.Gov3yr</t>
   </si>
   <si>
-    <t>[1] 4.201934</t>
-  </si>
-  <si>
     <t>$preCapVarImp.Libor3M_CHF</t>
   </si>
   <si>
-    <t>[1] 3.443227</t>
-  </si>
-  <si>
     <t>$preCapVarImp.CHFEUR</t>
   </si>
   <si>
-    <t>[1] 2.716563</t>
-  </si>
-  <si>
     <t>$capTrainError</t>
   </si>
   <si>
-    <t>[1] 23.64813</t>
-  </si>
-  <si>
     <t>$capTestError</t>
   </si>
   <si>
-    <t>[1] 45.27553</t>
-  </si>
-  <si>
     <t>$capTestPValue.p.value</t>
   </si>
   <si>
-    <t>[1] 5.681808e-82</t>
-  </si>
-  <si>
     <t>$capVarImp.SMIdir</t>
   </si>
   <si>
-    <t>[1] 17.41098</t>
-  </si>
-  <si>
     <t>$capVarImp.SDdomBanksdir</t>
   </si>
   <si>
-    <t>[1] 17.28267</t>
-  </si>
-  <si>
     <t>$capVarImp.ChgSDdomBanks</t>
   </si>
   <si>
-    <t>[1] 14.04225</t>
-  </si>
-  <si>
     <t>$capVarImp.Libor3M_CHF</t>
   </si>
   <si>
-    <t>[1] 13.42691</t>
-  </si>
-  <si>
     <t>$capVarImp.SDofDomBanks</t>
   </si>
   <si>
-    <t>[1] 10.53154</t>
-  </si>
-  <si>
     <t>$capVarImp.CHFEUR</t>
   </si>
   <si>
-    <t>[1] 10.0072</t>
-  </si>
-  <si>
     <t>$capVarImp.RetSMI</t>
   </si>
   <si>
-    <t>[1] 7.439932</t>
-  </si>
-  <si>
     <t>$capVarImp.CHFUSD</t>
   </si>
   <si>
-    <t>[1] 3.449491</t>
-  </si>
-  <si>
     <t>$capVarImp.Gov3yr</t>
   </si>
   <si>
-    <t>[1] 3.052901</t>
-  </si>
-  <si>
     <t>$capVarImp.Gov10yr</t>
   </si>
   <si>
-    <t>[1] 1.704124</t>
-  </si>
-  <si>
     <t>$capVarImp.SMI</t>
   </si>
   <si>
-    <t>[1] 1.652002</t>
-  </si>
-  <si>
     <t>$postCapTrainError</t>
   </si>
   <si>
-    <t>[1] 23.83802</t>
-  </si>
-  <si>
     <t>$postCapTestError</t>
   </si>
   <si>
-    <t>[1] 47.96775</t>
-  </si>
-  <si>
     <t>$postCapTestPValue.p.value</t>
   </si>
   <si>
-    <t>[1] 9.691857e-22</t>
-  </si>
-  <si>
     <t>$postCapVarImp.SDdomBanksdir</t>
   </si>
   <si>
-    <t>[1] 27.48588</t>
-  </si>
-  <si>
     <t>$postCapVarImp.SMI</t>
   </si>
   <si>
-    <t>[1] 15.74733</t>
-  </si>
-  <si>
     <t>$postCapVarImp.SMIdir</t>
   </si>
   <si>
-    <t>[1] 14.24558</t>
-  </si>
-  <si>
     <t>$postCapVarImp.Gov10yr</t>
   </si>
   <si>
-    <t>[1] 8.810878</t>
-  </si>
-  <si>
     <t>$postCapVarImp.ChgSDdomBanks</t>
   </si>
   <si>
-    <t>[1] 7.42134</t>
-  </si>
-  <si>
     <t>$postCapVarImp.RetSMI</t>
   </si>
   <si>
-    <t>[1] 6.836065</t>
-  </si>
-  <si>
     <t>$postCapVarImp.Libor3M_CHF</t>
   </si>
   <si>
-    <t>[1] 6.441587</t>
-  </si>
-  <si>
     <t>$postCapVarImp.CHFEUR</t>
   </si>
   <si>
-    <t>[1] 4.056614</t>
-  </si>
-  <si>
     <t>$postCapVarImp.SDofDomBanks</t>
   </si>
   <si>
-    <t>[1] 3.303739</t>
-  </si>
-  <si>
     <t>$postCapVarImp.CHFUSD</t>
   </si>
   <si>
-    <t>[1] 3.141611</t>
-  </si>
-  <si>
     <t>$postCapVarImp.Gov3yr</t>
   </si>
   <si>
-    <t>[1] 2.509381</t>
-  </si>
-  <si>
     <t>$WelchPreCapSDDirPValue</t>
   </si>
   <si>
-    <t>[1] 6.044823e-24</t>
-  </si>
-  <si>
     <t>$WelchPostCapSDDirPValue</t>
   </si>
   <si>
-    <t>[1] 3.480599e-155</t>
-  </si>
-  <si>
     <t>$WelchPreCapSDPValue</t>
   </si>
   <si>
-    <t>[1] 0.3443578</t>
-  </si>
-  <si>
     <t>$WelchPostCapSDPValue</t>
   </si>
   <si>
-    <t>[1] 6.137712e-92</t>
-  </si>
-  <si>
     <t>attr(,"class")</t>
   </si>
   <si>
@@ -573,144 +434,6 @@
     <t>Usage</t>
   </si>
   <si>
-    <t>[1] 29.47022</t>
-  </si>
-  <si>
-    <t>[1] 53.49411</t>
-  </si>
-  <si>
-    <t>[1] 1.282783e-72</t>
-  </si>
-  <si>
-    <t>[1] 56.28521</t>
-  </si>
-  <si>
-    <t>[1] 49.6779</t>
-  </si>
-  <si>
-    <t>[1] 44.44205</t>
-  </si>
-  <si>
-    <t>[1] 37.41225</t>
-  </si>
-  <si>
-    <t>[1] 30.19472</t>
-  </si>
-  <si>
-    <t>[1] 27.65559</t>
-  </si>
-  <si>
-    <t>[1] 27.53203</t>
-  </si>
-  <si>
-    <t>[1] 18.12627</t>
-  </si>
-  <si>
-    <t>[1] 16.79801</t>
-  </si>
-  <si>
-    <t>[1] 14.50139</t>
-  </si>
-  <si>
-    <t>[1] 11.56417</t>
-  </si>
-  <si>
-    <t>[1] 23.89129</t>
-  </si>
-  <si>
-    <t>[1] 45.37639</t>
-  </si>
-  <si>
-    <t>[1] 8.988832e-80</t>
-  </si>
-  <si>
-    <t>[1] 73.14082</t>
-  </si>
-  <si>
-    <t>[1] 60.848</t>
-  </si>
-  <si>
-    <t>[1] 47.85533</t>
-  </si>
-  <si>
-    <t>[1] 47.00312</t>
-  </si>
-  <si>
-    <t>[1] 46.05986</t>
-  </si>
-  <si>
-    <t>[1] 43.63806</t>
-  </si>
-  <si>
-    <t>[1] 39.44544</t>
-  </si>
-  <si>
-    <t>[1] 19.09228</t>
-  </si>
-  <si>
-    <t>[1] 15.86319</t>
-  </si>
-  <si>
-    <t>[1] 12.35835</t>
-  </si>
-  <si>
-    <t>[1] 7.999189</t>
-  </si>
-  <si>
-    <t>[1] 24.00537</t>
-  </si>
-  <si>
-    <t>[1] 47.86981</t>
-  </si>
-  <si>
-    <t>[1] 1.932129e-23</t>
-  </si>
-  <si>
-    <t>[1] 85.93691</t>
-  </si>
-  <si>
-    <t>[1] 69.16028</t>
-  </si>
-  <si>
-    <t>[1] 49.79358</t>
-  </si>
-  <si>
-    <t>[1] 49.32818</t>
-  </si>
-  <si>
-    <t>[1] 39.40666</t>
-  </si>
-  <si>
-    <t>[1] 37.668</t>
-  </si>
-  <si>
-    <t>[1] 34.07255</t>
-  </si>
-  <si>
-    <t>[1] 24.8795</t>
-  </si>
-  <si>
-    <t>[1] 21.99378</t>
-  </si>
-  <si>
-    <t>[1] 18.60759</t>
-  </si>
-  <si>
-    <t>[1] 18.47216</t>
-  </si>
-  <si>
-    <t>[1] 0.07974436</t>
-  </si>
-  <si>
-    <t>[1] 1.910567e-48</t>
-  </si>
-  <si>
-    <t>[1] 0.6520366</t>
-  </si>
-  <si>
-    <t>[1] 1.466891e-58</t>
-  </si>
-  <si>
     <t>&gt; InterventionCurrentSMI_Fx1.20</t>
   </si>
   <si>
@@ -1435,12 +1158,522 @@
   </si>
   <si>
     <t>\label{Output IntSD}</t>
+  </si>
+  <si>
+    <t>[1] 25.78884</t>
+  </si>
+  <si>
+    <t>[1] 52.68864</t>
+  </si>
+  <si>
+    <t>[1] 1.275972e-90</t>
+  </si>
+  <si>
+    <t>[1] 23.29355</t>
+  </si>
+  <si>
+    <t>[1] 20.69424</t>
+  </si>
+  <si>
+    <t>[1] 12.98703</t>
+  </si>
+  <si>
+    <t>[1] 8.957081</t>
+  </si>
+  <si>
+    <t>[1] 8.543146</t>
+  </si>
+  <si>
+    <t>[1] 6.182858</t>
+  </si>
+  <si>
+    <t>[1] 4.726683</t>
+  </si>
+  <si>
+    <t>[1] 4.631534</t>
+  </si>
+  <si>
+    <t>[1] 4.264078</t>
+  </si>
+  <si>
+    <t>[1] 3.391712</t>
+  </si>
+  <si>
+    <t>[1] 2.328085</t>
+  </si>
+  <si>
+    <t>[1] 21.83428</t>
+  </si>
+  <si>
+    <t>[1] 46.72273</t>
+  </si>
+  <si>
+    <t>[1] 3.481018e-86</t>
+  </si>
+  <si>
+    <t>[1] 17.62962</t>
+  </si>
+  <si>
+    <t>[1] 17.32167</t>
+  </si>
+  <si>
+    <t>[1] 14.62364</t>
+  </si>
+  <si>
+    <t>[1] 12.96877</t>
+  </si>
+  <si>
+    <t>[1] 10.6016</t>
+  </si>
+  <si>
+    <t>[1] 9.508892</t>
+  </si>
+  <si>
+    <t>[1] 7.358226</t>
+  </si>
+  <si>
+    <t>[1] 3.581094</t>
+  </si>
+  <si>
+    <t>[1] 2.964912</t>
+  </si>
+  <si>
+    <t>[1] 1.852807</t>
+  </si>
+  <si>
+    <t>[1] 1.588762</t>
+  </si>
+  <si>
+    <t>[1] 20.63069</t>
+  </si>
+  <si>
+    <t>[1] 49.26143</t>
+  </si>
+  <si>
+    <t>[1] 3.525692e-07</t>
+  </si>
+  <si>
+    <t>[1] 27.78686</t>
+  </si>
+  <si>
+    <t>[1] 15.75658</t>
+  </si>
+  <si>
+    <t>[1] 13.96746</t>
+  </si>
+  <si>
+    <t>[1] 8.972367</t>
+  </si>
+  <si>
+    <t>[1] 7.209706</t>
+  </si>
+  <si>
+    <t>[1] 6.870165</t>
+  </si>
+  <si>
+    <t>[1] 6.613504</t>
+  </si>
+  <si>
+    <t>[1] 3.649978</t>
+  </si>
+  <si>
+    <t>[1] 3.384103</t>
+  </si>
+  <si>
+    <t>[1] 3.135031</t>
+  </si>
+  <si>
+    <t>[1] 2.654252</t>
+  </si>
+  <si>
+    <t>[1] 2.078528e-35</t>
+  </si>
+  <si>
+    <t>[1] 1.804313e-283</t>
+  </si>
+  <si>
+    <t>[1] 3.889484e-08</t>
+  </si>
+  <si>
+    <t>[1] 5.661688e-180</t>
+  </si>
+  <si>
+    <t>[1] 26.35172</t>
+  </si>
+  <si>
+    <t>[1] 52.34982</t>
+  </si>
+  <si>
+    <t>[1] 2.871546e-68</t>
+  </si>
+  <si>
+    <t>[1] 56.01419</t>
+  </si>
+  <si>
+    <t>[1] 48.60461</t>
+  </si>
+  <si>
+    <t>[1] 44.05678</t>
+  </si>
+  <si>
+    <t>[1] 37.06933</t>
+  </si>
+  <si>
+    <t>[1] 30.0213</t>
+  </si>
+  <si>
+    <t>[1] 27.55438</t>
+  </si>
+  <si>
+    <t>[1] 26.37306</t>
+  </si>
+  <si>
+    <t>[1] 18.59877</t>
+  </si>
+  <si>
+    <t>[1] 16.98822</t>
+  </si>
+  <si>
+    <t>[1] 14.83528</t>
+  </si>
+  <si>
+    <t>[1] 12.3968</t>
+  </si>
+  <si>
+    <t>[1] 22.13015</t>
+  </si>
+  <si>
+    <t>[1] 46.62868</t>
+  </si>
+  <si>
+    <t>[1] 1.888218e-87</t>
+  </si>
+  <si>
+    <t>[1] 72.32528</t>
+  </si>
+  <si>
+    <t>[1] 61.99466</t>
+  </si>
+  <si>
+    <t>[1] 48.16654</t>
+  </si>
+  <si>
+    <t>[1] 47.95929</t>
+  </si>
+  <si>
+    <t>[1] 46.5117</t>
+  </si>
+  <si>
+    <t>[1] 44.81701</t>
+  </si>
+  <si>
+    <t>[1] 38.04172</t>
+  </si>
+  <si>
+    <t>[1] 20.37881</t>
+  </si>
+  <si>
+    <t>[1] 14.8864</t>
+  </si>
+  <si>
+    <t>[1] 11.96699</t>
+  </si>
+  <si>
+    <t>[1] 8.525938</t>
+  </si>
+  <si>
+    <t>[1] 20.89683</t>
+  </si>
+  <si>
+    <t>[1] 49.17966</t>
+  </si>
+  <si>
+    <t>[1] 1.465676e-08</t>
+  </si>
+  <si>
+    <t>[1] 85.53214</t>
+  </si>
+  <si>
+    <t>[1] 70.52636</t>
+  </si>
+  <si>
+    <t>[1] 51.50754</t>
+  </si>
+  <si>
+    <t>[1] 49.73646</t>
+  </si>
+  <si>
+    <t>[1] 40.65248</t>
+  </si>
+  <si>
+    <t>[1] 37.80157</t>
+  </si>
+  <si>
+    <t>[1] 36.63741</t>
+  </si>
+  <si>
+    <t>[1] 24.5444</t>
+  </si>
+  <si>
+    <t>[1] 22.75395</t>
+  </si>
+  <si>
+    <t>[1] 19.42755</t>
+  </si>
+  <si>
+    <t>[1] 18.57548</t>
+  </si>
+  <si>
+    <t>[1] 0.5504486</t>
+  </si>
+  <si>
+    <t>[1] 6.268416e-98</t>
+  </si>
+  <si>
+    <t>[1] 0.55133</t>
+  </si>
+  <si>
+    <t>[1] 7.079155e-114</t>
+  </si>
+  <si>
+    <t>PreCap</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>PostCap</t>
+  </si>
+  <si>
+    <t>SMIdir</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>RetSMI</t>
+  </si>
+  <si>
+    <t>23.29</t>
+  </si>
+  <si>
+    <t>20.69</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>8.54</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>17.63</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>14.62</t>
+  </si>
+  <si>
+    <t>12.97</t>
+  </si>
+  <si>
+    <t>10.60</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>7.36</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>27.79</t>
+  </si>
+  <si>
+    <t>15.76</t>
+  </si>
+  <si>
+    <t>13.97</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>\begin{tabular}{||c c |c c| c c||}</t>
+  </si>
+  <si>
+    <t>\caption{C5.0 output for the 3-periods set. Train Error 26.1\% / 22.0\% / 20.7\%. Test Error 52.5\% / 46.7\%*** / 49.2\%***. }</t>
+  </si>
+  <si>
+    <t>56.01</t>
+  </si>
+  <si>
+    <t>48.60</t>
+  </si>
+  <si>
+    <t>44.06</t>
+  </si>
+  <si>
+    <t>37.07</t>
+  </si>
+  <si>
+    <t>30.02</t>
+  </si>
+  <si>
+    <t>27.55</t>
+  </si>
+  <si>
+    <t>26.37</t>
+  </si>
+  <si>
+    <t>18.60</t>
+  </si>
+  <si>
+    <t>16.99</t>
+  </si>
+  <si>
+    <t>14.84</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t>72.33</t>
+  </si>
+  <si>
+    <t>61.99</t>
+  </si>
+  <si>
+    <t>48.17</t>
+  </si>
+  <si>
+    <t>47.96</t>
+  </si>
+  <si>
+    <t>46.51</t>
+  </si>
+  <si>
+    <t>44.82</t>
+  </si>
+  <si>
+    <t>38.04</t>
+  </si>
+  <si>
+    <t>20.38</t>
+  </si>
+  <si>
+    <t>14.89</t>
+  </si>
+  <si>
+    <t>11.97</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>85.53</t>
+  </si>
+  <si>
+    <t>70.53</t>
+  </si>
+  <si>
+    <t>51.51</t>
+  </si>
+  <si>
+    <t>49.74</t>
+  </si>
+  <si>
+    <t>40.65</t>
+  </si>
+  <si>
+    <t>37.80</t>
+  </si>
+  <si>
+    <t>36.64</t>
+  </si>
+  <si>
+    <t>24.54</t>
+  </si>
+  <si>
+    <t>22.75</t>
+  </si>
+  <si>
+    <t>19.43</t>
+  </si>
+  <si>
+    <t>18.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreCap &amp; Splits &amp; Cap &amp; Splits &amp; PostCap &amp; Splits\\ [0.5ex] </t>
+  </si>
+  <si>
+    <t>\label{Output PeriodsSplits}</t>
+  </si>
+  <si>
+    <t>\label{Output PeriodsUsage}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreCap &amp; Usage &amp; Cap &amp; Usage &amp; PostCap &amp; Usage \\ [0.5ex] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1800,1016 +2033,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C534"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>377</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>379</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="K13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" t="s">
+        <v>475</v>
+      </c>
+      <c r="F18" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18" t="s">
+        <v>486</v>
+      </c>
+      <c r="H18" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" t="s">
+        <v>497</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f>D18&amp;" &amp; "&amp;E18&amp;" &amp; "&amp;F18&amp;" &amp; "&amp;G18&amp;" &amp; "&amp;H18&amp;" &amp; "&amp;I18&amp;" \\"</f>
+        <v>SMIdir &amp; 23.29 &amp; SMIdir &amp; 17.63 &amp; SDdomBanksdir &amp; 27.79 \\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>476</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H19" t="s">
+        <v>473</v>
+      </c>
+      <c r="I19" t="s">
+        <v>498</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" ref="K19:K28" si="0">D19&amp;" &amp; "&amp;E19&amp;" &amp; "&amp;F19&amp;" &amp; "&amp;G19&amp;" &amp; "&amp;H19&amp;" &amp; "&amp;I19&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 20.69 &amp; SDdomBanksdir &amp; 17.32 &amp; SMI &amp; 15.76 \\</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" t="s">
+        <v>477</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" t="s">
+        <v>488</v>
+      </c>
+      <c r="H20" t="s">
+        <v>472</v>
+      </c>
+      <c r="I20" t="s">
+        <v>499</v>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ChgSDdomBanks &amp; 12.99 &amp; ChgSDdomBanks &amp; 14.62 &amp; SMIdir &amp; 13.97 \\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>489</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>500</v>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SDofDomBanks &amp; 8.96 &amp; Libor3M_CHF &amp; 12.97 &amp; Gov10yr &amp; 8.97 \\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>383</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>490</v>
+      </c>
+      <c r="H22" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" t="s">
+        <v>501</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFUSD &amp; 8.54 &amp; SDofDomBanks &amp; 10.60 &amp; ChgSDdomBanks &amp; 7.21 \\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>491</v>
+      </c>
+      <c r="H23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" t="s">
+        <v>502</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SMI &amp; 6.18 &amp; CHFEUR &amp; 9.51 &amp; Libor3M_CHF &amp; 6.87 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" t="s">
+        <v>481</v>
+      </c>
+      <c r="F24" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" t="s">
+        <v>492</v>
+      </c>
+      <c r="H24" t="s">
+        <v>474</v>
+      </c>
+      <c r="I24" t="s">
+        <v>503</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>RetSMI &amp; 4.73 &amp; RetSMI &amp; 7.36 &amp; RetSMI &amp; 6.61 \\</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" t="s">
+        <v>482</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" t="s">
+        <v>504</v>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov3yr &amp; 4.63 &amp; CHFUSD &amp; 3.58 &amp; CHFEUR &amp; 3.65 \\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>483</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>494</v>
+      </c>
+      <c r="H26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" t="s">
+        <v>505</v>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov10yr &amp; 4.26 &amp; Gov3yr &amp; 2.96 &amp; SDofDomBanks &amp; 3.38 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
+        <v>484</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>495</v>
+      </c>
+      <c r="H27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" t="s">
+        <v>506</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Libor3M_CHF &amp; 3.39 &amp; Gov10yr &amp; 1.85 &amp; CHFUSD &amp; 3.14 \\</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>485</v>
+      </c>
+      <c r="F28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G28" t="s">
+        <v>496</v>
+      </c>
+      <c r="H28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" t="s">
+        <v>507</v>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFEUR &amp; 2.33 &amp; SMI &amp; 1.59 &amp; Gov3yr &amp; 2.65 \\</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>386</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="K31" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>23</v>
+        <v>387</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>389</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>33</v>
+        <v>392</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="K49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K52" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F54" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" t="s">
+        <v>521</v>
+      </c>
+      <c r="H54" t="s">
+        <v>473</v>
+      </c>
+      <c r="I54" t="s">
+        <v>532</v>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f>D54&amp;" &amp; "&amp;E54&amp;" &amp; "&amp;F54&amp;" &amp; "&amp;G54&amp;" &amp; "&amp;H54&amp;" &amp; "&amp;I54&amp;" \\"</f>
+        <v>SMIdir &amp; 56.01 &amp; Libor3M_CHF &amp; 72.33 &amp; SMI &amp; 85.53 \\</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F55" t="s">
+        <v>256</v>
+      </c>
+      <c r="G55" t="s">
+        <v>522</v>
+      </c>
+      <c r="H55" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" t="s">
+        <v>533</v>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f t="shared" ref="K55:K64" si="1">D55&amp;" &amp; "&amp;E55&amp;" &amp; "&amp;F55&amp;" &amp; "&amp;G55&amp;" &amp; "&amp;H55&amp;" &amp; "&amp;I55&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 48.60 &amp; ChgSDdomBanks &amp; 61.99 &amp; SDdomBanksdir &amp; 70.53 \\</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>523</v>
+      </c>
+      <c r="H56" t="s">
+        <v>472</v>
+      </c>
+      <c r="I56" t="s">
+        <v>534</v>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDofDomBanks &amp; 44.06 &amp; SMIdir &amp; 48.17 &amp; SMIdir &amp; 51.51 \\</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" t="s">
+        <v>524</v>
+      </c>
+      <c r="H57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I57" t="s">
+        <v>535</v>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>ChgSDdomBanks &amp; 37.07 &amp; SDdomBanksdir &amp; 47.96 &amp; Libor3M_CHF &amp; 49.74 \\</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>39</v>
+        <v>395</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F58" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" t="s">
+        <v>525</v>
+      </c>
+      <c r="H58" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" t="s">
+        <v>536</v>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>CHFUSD &amp; 30.02 &amp; CHFEUR &amp; 46.51 &amp; ChgSDdomBanks &amp; 40.65 \\</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" t="s">
+        <v>526</v>
+      </c>
+      <c r="H59" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" t="s">
+        <v>537</v>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>RetSMI &amp; 27.55 &amp; SDofDomBanks &amp; 44.82 &amp; Gov10yr &amp; 37.80 \\</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
+        <v>527</v>
+      </c>
+      <c r="H60" t="s">
+        <v>474</v>
+      </c>
+      <c r="I60" t="s">
+        <v>538</v>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SMI &amp; 26.37 &amp; RetSMI &amp; 38.04 &amp; RetSMI &amp; 36.64 \\</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H61" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" t="s">
+        <v>539</v>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gov3yr &amp; 18.60 &amp; CHFUSD &amp; 20.38 &amp; CHFEUR &amp; 24.54 \\</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gov10yr &amp; 16.99 &amp; Gov3yr &amp; 14.89 &amp; CHFUSD &amp; 22.75 \\</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H63" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" t="s">
+        <v>541</v>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Libor3M_CHF &amp; 14.84 &amp; Gov10yr &amp; 11.97 &amp; SDofDomBanks &amp; 19.43 \\</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H64" t="s">
+        <v>198</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>CHFEUR &amp; 12.40 &amp; SMI &amp; 8.53 &amp; Gov3yr &amp; 18.58 \\</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="K67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>47</v>
+        <v>399</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>53</v>
+        <v>402</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>59</v>
+        <v>405</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>61</v>
+        <v>406</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>63</v>
+        <v>407</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>69</v>
+        <v>410</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,18 +3506,18 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>89</v>
+        <v>420</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,18 +3526,18 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,18 +3546,18 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,1195 +3566,19 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="3"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="3"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="3"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="3"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="3"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="3"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="3"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="3"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="3"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="3"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="3"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="3"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="3"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="3"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="3"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="3"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="3"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="3"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="3"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="3"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="3"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="3"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="3"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="3"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="3"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="3"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="3"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="3"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="3"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="3"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="3"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="3"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="3"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="3"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="3"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="3"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="3"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="3"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="3"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="3"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="3"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="3"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="3"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="3"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="3"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="3"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="3"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="3"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="3"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="3"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="3"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="3"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="3"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="1"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="1"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="1"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="3"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="3"/>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="3"/>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="3"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="3"/>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="3"/>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="3"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="3"/>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="3"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="3"/>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="3"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="3"/>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="3"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="3"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="3"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="3"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="3"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="3"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="3"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="3"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="3"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="3"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="3"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="3"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="3"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="3"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="3"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="3"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="3"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="3"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="3"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="3"/>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="3"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="3"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="3"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="3"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="4"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="3"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="3"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="3"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="3"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="3"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="3"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="3"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="3"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="3"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="3"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="3"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="3"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="3"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="3"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="3"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="3"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="3"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="3"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="3"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="4"/>
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4075,7 +3587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4091,10 +3603,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4117,10 +3629,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4131,19 +3643,19 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -4154,19 +3666,19 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -4177,19 +3689,19 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -4200,19 +3712,19 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -4223,19 +3735,19 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -4246,19 +3758,19 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -4269,19 +3781,19 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -4292,19 +3804,19 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -4315,19 +3827,19 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -4338,19 +3850,19 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -4361,19 +3873,19 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -4384,19 +3896,19 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -4407,19 +3919,19 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -4430,19 +3942,19 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -4453,19 +3965,19 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -4476,19 +3988,19 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -4499,19 +4011,19 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -4522,19 +4034,19 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C58" s="3"/>
     </row>
@@ -4545,19 +4057,19 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -4568,19 +4080,19 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -4591,19 +4103,19 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -4614,19 +4126,19 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -4637,19 +4149,19 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -4660,19 +4172,19 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -4683,19 +4195,19 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -4706,19 +4218,19 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -4729,19 +4241,19 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -4752,19 +4264,19 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C88" s="3"/>
     </row>
@@ -4775,19 +4287,19 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C91" s="3"/>
     </row>
@@ -4798,19 +4310,19 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -4821,19 +4333,19 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C97" s="3"/>
     </row>
@@ -4844,19 +4356,19 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -4867,19 +4379,19 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C103" s="3"/>
     </row>
@@ -4890,19 +4402,19 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -4913,19 +4425,19 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C109" s="4"/>
     </row>
@@ -4935,18 +4447,18 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -4955,18 +4467,18 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -4975,18 +4487,18 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -4995,18 +4507,18 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,18 +4527,18 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -5482,11 +4994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,34 +5010,34 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,18 +5046,18 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5554,18 +5066,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5574,10 +5086,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5585,10 +5097,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -5603,10 +5115,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5614,16 +5126,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5633,35 +5145,35 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="I18" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="I19" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5669,59 +5181,59 @@
       <c r="B20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="G20" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="I20" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="I21" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" t="s">
         <v>302</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" t="s">
-        <v>373</v>
-      </c>
-      <c r="F22" t="s">
-        <v>374</v>
-      </c>
-      <c r="G22" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22" t="s">
-        <v>394</v>
       </c>
       <c r="I22" s="7" t="str">
         <f>D22&amp;" &amp; "&amp;E22&amp;" &amp; "&amp;F22&amp;" &amp; "&amp;G22&amp;" &amp; "&amp;H22&amp;" \\"</f>
@@ -5732,46 +5244,46 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="E23" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="F23" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="H23" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f t="shared" ref="I23:I30" si="0">D23&amp;" &amp; "&amp;E23&amp;" &amp; "&amp;F23&amp;" &amp; "&amp;G23&amp;" &amp; "&amp;H23&amp;" \\"</f>
+        <f t="shared" ref="I23:I29" si="0">D23&amp;" &amp; "&amp;E23&amp;" &amp; "&amp;F23&amp;" &amp; "&amp;G23&amp;" &amp; "&amp;H23&amp;" \\"</f>
         <v>SMIprev &amp; 30.75 &amp; 55.66 &amp; 2.62 &amp; 4.23 \\</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="G24" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="H24" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5780,25 +5292,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" t="s">
         <v>288</v>
       </c>
-      <c r="E25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F25" t="s">
-        <v>380</v>
-      </c>
       <c r="G25" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="I25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5809,19 +5321,19 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="3" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="E26" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>290</v>
       </c>
       <c r="G26" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="H26" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="I26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5830,25 +5342,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="G27" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="H27" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="I27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5857,25 +5369,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5886,19 +5398,19 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="3" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="H29" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5907,25 +5419,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="F30" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="H30" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="I30" s="7" t="str">
         <f>D30&amp;" &amp; "&amp;E30&amp;" &amp; "&amp;F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" \\ [1ex]"</f>
@@ -5934,13 +5446,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5948,35 +5460,35 @@
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="I32" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="I33" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="I34" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5986,15 +5498,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -6002,10 +5514,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -6020,10 +5532,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -6031,10 +5543,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -6049,18 +5561,18 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -6071,19 +5583,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -6094,19 +5606,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="D49" s="3"/>
     </row>
@@ -6117,19 +5629,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,18 +5650,18 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,19 +5670,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
@@ -6182,20 +5694,20 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="F61" s="3"/>
     </row>
@@ -6207,19 +5719,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
@@ -6231,20 +5743,20 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="F67" s="3"/>
     </row>
@@ -6256,19 +5768,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
@@ -6279,19 +5791,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6300,18 +5812,18 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6320,18 +5832,18 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,18 +5852,18 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6364,11 +5876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6383,46 +5895,46 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="6"/>
@@ -6438,13 +5950,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -6452,19 +5964,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="J7" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6475,41 +5987,41 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="J8" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="J9" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="J10" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6520,35 +6032,35 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="F13">
         <v>66.06</v>
@@ -6557,10 +6069,10 @@
         <v>87.33</v>
       </c>
       <c r="H13" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="J13" s="7" t="str">
         <f t="shared" ref="J13:J19" si="0">E13&amp;" &amp; "&amp;F13&amp;" &amp; "&amp;G13&amp;" &amp; "&amp;H13&amp;" &amp; "&amp;I13&amp;" \\"</f>
@@ -6572,19 +6084,19 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="G14">
         <v>24.87</v>
       </c>
       <c r="H14" t="s">
-        <v>441</v>
+        <v>349</v>
       </c>
       <c r="I14" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="J14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6593,28 +6105,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="G15" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="H15" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
       <c r="I15" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="J15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6623,28 +6135,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="G16" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="H16" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="I16" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="J16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6656,19 +6168,19 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="G17" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="I17" t="s">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="J17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6677,28 +6189,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="H18" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="I18" t="s">
-        <v>440</v>
+        <v>348</v>
       </c>
       <c r="J18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6707,28 +6219,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="G19" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="H19" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="I19" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
       <c r="J19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6740,19 +6252,19 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="G20" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="H20" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>436</v>
+        <v>344</v>
       </c>
       <c r="J20" s="7" t="str">
         <f>E20&amp;" &amp; "&amp;F20&amp;" &amp; "&amp;G20&amp;" &amp; "&amp;H20&amp;" &amp; "&amp;I20&amp;" \\ [1ex]"</f>
@@ -6761,32 +6273,32 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="E21" s="3"/>
       <c r="J21" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="E22" s="3"/>
       <c r="J22" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6795,37 +6307,37 @@
       <c r="C23" s="1"/>
       <c r="E23" s="3"/>
       <c r="J23" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="E24" s="3"/>
       <c r="J24" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="E25" s="3"/>
       <c r="J25" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6836,25 +6348,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -6868,13 +6380,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -6882,13 +6394,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -6904,13 +6416,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -6918,13 +6430,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>453</v>
+        <v>361</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -6940,13 +6452,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -6954,13 +6466,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>454</v>
+        <v>362</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6970,24 +6482,24 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6997,24 +6509,24 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -7024,24 +6536,24 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>457</v>
+        <v>365</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
@@ -7053,26 +6565,26 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>458</v>
+        <v>366</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7084,24 +6596,24 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -7111,24 +6623,24 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7138,24 +6650,24 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -7165,24 +6677,24 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -7192,24 +6704,24 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7219,24 +6731,24 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>464</v>
+        <v>372</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7246,24 +6758,24 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>465</v>
+        <v>373</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7273,24 +6785,24 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7300,24 +6812,24 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs.xlsx
+++ b/Outputs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967706E-291A-4BCD-8DAC-E525C278E761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecastSMI_allPeriods" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="intSMI_FX1.20" sheetId="3" r:id="rId3"/>
     <sheet name="intSMI_SD75quantile" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="548">
   <si>
     <t>&gt; forecastSMI</t>
   </si>
@@ -179,255 +180,15 @@
     <t>[1] "allPeriodsC5"</t>
   </si>
   <si>
-    <t>[1] 37.72237</t>
-  </si>
-  <si>
-    <t>[1] 52.37884</t>
-  </si>
-  <si>
-    <t>[1] 4.62617e-41</t>
-  </si>
-  <si>
-    <t>[1] 42.69864</t>
-  </si>
-  <si>
     <t>$preCapVarImp.SMIprev</t>
   </si>
   <si>
-    <t>[1] 22.20187</t>
-  </si>
-  <si>
-    <t>[1] 11.0124</t>
-  </si>
-  <si>
-    <t>[1] 6.3195</t>
-  </si>
-  <si>
-    <t>[1] 6.114029</t>
-  </si>
-  <si>
-    <t>[1] 4.07356</t>
-  </si>
-  <si>
-    <t>[1] 2.927204</t>
-  </si>
-  <si>
-    <t>[1] 2.340298</t>
-  </si>
-  <si>
-    <t>[1] 2.312488</t>
-  </si>
-  <si>
-    <t>[1] 31.61405</t>
-  </si>
-  <si>
-    <t>[1] 44.96046</t>
-  </si>
-  <si>
-    <t>[1] 8.811721e-57</t>
-  </si>
-  <si>
-    <t>[1] 30.36289</t>
-  </si>
-  <si>
-    <t>[1] 18.13441</t>
-  </si>
-  <si>
-    <t>[1] 16.85592</t>
-  </si>
-  <si>
-    <t>[1] 10.37393</t>
-  </si>
-  <si>
-    <t>[1] 9.006648</t>
-  </si>
-  <si>
-    <t>[1] 6.601411</t>
-  </si>
-  <si>
-    <t>[1] 5.302952</t>
-  </si>
-  <si>
-    <t>[1] 2.263114</t>
-  </si>
-  <si>
     <t>$capVarImp.SMIprev</t>
   </si>
   <si>
-    <t>[1] 1.098728</t>
-  </si>
-  <si>
-    <t>[1] 33.89939</t>
-  </si>
-  <si>
-    <t>[1] 43.27857</t>
-  </si>
-  <si>
-    <t>[1] 1.192977e-176</t>
-  </si>
-  <si>
-    <t>[1] 41.55534</t>
-  </si>
-  <si>
     <t>$postCapVarImp.SMIprev</t>
   </si>
   <si>
-    <t>[1] 35.04778</t>
-  </si>
-  <si>
-    <t>[1] 8.821338</t>
-  </si>
-  <si>
-    <t>[1] 7.453452</t>
-  </si>
-  <si>
-    <t>[1] 2.133495</t>
-  </si>
-  <si>
-    <t>[1] 1.740235</t>
-  </si>
-  <si>
-    <t>[1] 1.21792</t>
-  </si>
-  <si>
-    <t>[1] 1.212289</t>
-  </si>
-  <si>
-    <t>[1] 0.8181514</t>
-  </si>
-  <si>
-    <t>[1] 1.713855e-75</t>
-  </si>
-  <si>
-    <t>[1] 7.840653e-95</t>
-  </si>
-  <si>
-    <t>[1] 7.884947e-55</t>
-  </si>
-  <si>
-    <t>[1] 4.142553e-41</t>
-  </si>
-  <si>
-    <t>[1] 37.83988</t>
-  </si>
-  <si>
-    <t>[1] 52.36277</t>
-  </si>
-  <si>
-    <t>[1] 8.88597e-43</t>
-  </si>
-  <si>
-    <t>[1] 56.27131</t>
-  </si>
-  <si>
-    <t>[1] 43.01908</t>
-  </si>
-  <si>
-    <t>[1] 21.35788</t>
-  </si>
-  <si>
-    <t>[1] 11.65075</t>
-  </si>
-  <si>
-    <t>[1] 10.27705</t>
-  </si>
-  <si>
-    <t>[1] 7.607012</t>
-  </si>
-  <si>
-    <t>[1] 6.219542</t>
-  </si>
-  <si>
-    <t>[1] 5.040819</t>
-  </si>
-  <si>
-    <t>[1] 3.693337</t>
-  </si>
-  <si>
-    <t>[1] 31.45905</t>
-  </si>
-  <si>
-    <t>[1] 44.68252</t>
-  </si>
-  <si>
-    <t>[1] 6.027048e-61</t>
-  </si>
-  <si>
-    <t>[1] 40.51196</t>
-  </si>
-  <si>
-    <t>[1] 27.57986</t>
-  </si>
-  <si>
-    <t>[1] 27.51008</t>
-  </si>
-  <si>
-    <t>[1] 21.5285</t>
-  </si>
-  <si>
-    <t>[1] 14.13785</t>
-  </si>
-  <si>
-    <t>[1] 13.73762</t>
-  </si>
-  <si>
-    <t>[1] 11.31244</t>
-  </si>
-  <si>
-    <t>[1] 3.380475</t>
-  </si>
-  <si>
-    <t>[1] 2.366718</t>
-  </si>
-  <si>
-    <t>[1] 33.21227</t>
-  </si>
-  <si>
-    <t>[1] 43.57982</t>
-  </si>
-  <si>
-    <t>[1] 4.648844e-163</t>
-  </si>
-  <si>
-    <t>[1] 84.93221</t>
-  </si>
-  <si>
-    <t>[1] 67.93123</t>
-  </si>
-  <si>
-    <t>[1] 31.38483</t>
-  </si>
-  <si>
-    <t>[1] 18.13203</t>
-  </si>
-  <si>
-    <t>[1] 9.155832</t>
-  </si>
-  <si>
-    <t>[1] 6.378256</t>
-  </si>
-  <si>
-    <t>[1] 5.611765</t>
-  </si>
-  <si>
-    <t>[1] 5.238154</t>
-  </si>
-  <si>
-    <t>[1] 3.60355</t>
-  </si>
-  <si>
-    <t>[1] 1.308868e-42</t>
-  </si>
-  <si>
-    <t>[1] 2.000647e-177</t>
-  </si>
-  <si>
-    <t>[1] 1.287878e-54</t>
-  </si>
-  <si>
-    <t>[1] 2.509286e-28</t>
-  </si>
-  <si>
     <t>Splits</t>
   </si>
   <si>
@@ -1668,12 +1429,255 @@
   </si>
   <si>
     <t xml:space="preserve">PreCap &amp; Usage &amp; Cap &amp; Usage &amp; PostCap &amp; Usage \\ [0.5ex] </t>
+  </si>
+  <si>
+    <t>$`preCapTrainError`</t>
+  </si>
+  <si>
+    <t>[1] 37.58175</t>
+  </si>
+  <si>
+    <t>[1] 52.22717</t>
+  </si>
+  <si>
+    <t>[1] 2.004199e-77</t>
+  </si>
+  <si>
+    <t>[1] 52.87847</t>
+  </si>
+  <si>
+    <t>[1] 44.90789</t>
+  </si>
+  <si>
+    <t>[1] 23.61993</t>
+  </si>
+  <si>
+    <t>[1] 13.30331</t>
+  </si>
+  <si>
+    <t>[1] 10.19309</t>
+  </si>
+  <si>
+    <t>[1] 6.923548</t>
+  </si>
+  <si>
+    <t>[1] 6.759321</t>
+  </si>
+  <si>
+    <t>[1] 4.209515</t>
+  </si>
+  <si>
+    <t>[1] 4.100831</t>
+  </si>
+  <si>
+    <t>[1] 31.53138</t>
+  </si>
+  <si>
+    <t>[1] 45.16685</t>
+  </si>
+  <si>
+    <t>[1] 3.954147e-99</t>
+  </si>
+  <si>
+    <t>[1] 40.1723</t>
+  </si>
+  <si>
+    <t>[1] 30.03987</t>
+  </si>
+  <si>
+    <t>[1] 27.14907</t>
+  </si>
+  <si>
+    <t>[1] 22.49664</t>
+  </si>
+  <si>
+    <t>[1] 14.74295</t>
+  </si>
+  <si>
+    <t>[1] 13.91353</t>
+  </si>
+  <si>
+    <t>[1] 11.51295</t>
+  </si>
+  <si>
+    <t>[1] 3.033346</t>
+  </si>
+  <si>
+    <t>[1] 1.983547</t>
+  </si>
+  <si>
+    <t>[1] 33.29433</t>
+  </si>
+  <si>
+    <t>[1] 43.71508</t>
+  </si>
+  <si>
+    <t>[1] 0</t>
+  </si>
+  <si>
+    <t>[1] 83.4521</t>
+  </si>
+  <si>
+    <t>[1] 69.0589</t>
+  </si>
+  <si>
+    <t>[1] 29.89833</t>
+  </si>
+  <si>
+    <t>[1] 17.83956</t>
+  </si>
+  <si>
+    <t>[1] 9.059489</t>
+  </si>
+  <si>
+    <t>[1] 5.74833</t>
+  </si>
+  <si>
+    <t>[1] 5.584347</t>
+  </si>
+  <si>
+    <t>[1] 4.841533</t>
+  </si>
+  <si>
+    <t>[1] 4.561685</t>
+  </si>
+  <si>
+    <t>[1] 1.155906e-53</t>
+  </si>
+  <si>
+    <t>[1] 3.820104e-303</t>
+  </si>
+  <si>
+    <t>[1] 9.643514e-110</t>
+  </si>
+  <si>
+    <t>[1] 5.798694e-54</t>
+  </si>
+  <si>
+    <t>[1] 37.53061</t>
+  </si>
+  <si>
+    <t>[1] 52.07767</t>
+  </si>
+  <si>
+    <t>[1] 6.870058e-64</t>
+  </si>
+  <si>
+    <t>[1] 41.89148</t>
+  </si>
+  <si>
+    <t>[1] 23.94923</t>
+  </si>
+  <si>
+    <t>[1] 11.18784</t>
+  </si>
+  <si>
+    <t>[1] 6.745351</t>
+  </si>
+  <si>
+    <t>[1] 5.189068</t>
+  </si>
+  <si>
+    <t>[1] 3.422297</t>
+  </si>
+  <si>
+    <t>[1] 3.090372</t>
+  </si>
+  <si>
+    <t>[1] 2.437686</t>
+  </si>
+  <si>
+    <t>[1] 2.086682</t>
+  </si>
+  <si>
+    <t>[1] 31.56135</t>
+  </si>
+  <si>
+    <t>[1] 45.30948</t>
+  </si>
+  <si>
+    <t>[1] 1.202421e-103</t>
+  </si>
+  <si>
+    <t>[1] 30.07091</t>
+  </si>
+  <si>
+    <t>[1] 18.02948</t>
+  </si>
+  <si>
+    <t>[1] 16.05517</t>
+  </si>
+  <si>
+    <t>[1] 10.48961</t>
+  </si>
+  <si>
+    <t>[1] 9.603221</t>
+  </si>
+  <si>
+    <t>[1] 6.983103</t>
+  </si>
+  <si>
+    <t>[1] 6.248384</t>
+  </si>
+  <si>
+    <t>[1] 1.541658</t>
+  </si>
+  <si>
+    <t>[1] 0.9784668</t>
+  </si>
+  <si>
+    <t>[1] 33.28661</t>
+  </si>
+  <si>
+    <t>[1] 43.58441</t>
+  </si>
+  <si>
+    <t>[1] 42.83557</t>
+  </si>
+  <si>
+    <t>[1] 32.83383</t>
+  </si>
+  <si>
+    <t>[1] 9.445495</t>
+  </si>
+  <si>
+    <t>[1] 7.258653</t>
+  </si>
+  <si>
+    <t>[1] 2.175394</t>
+  </si>
+  <si>
+    <t>[1] 1.777951</t>
+  </si>
+  <si>
+    <t>[1] 1.45208</t>
+  </si>
+  <si>
+    <t>[1] 1.334949</t>
+  </si>
+  <si>
+    <t>[1] 0.8860815</t>
+  </si>
+  <si>
+    <t>[1] 1.867901e-157</t>
+  </si>
+  <si>
+    <t>[1] 2.684253e-245</t>
+  </si>
+  <si>
+    <t>[1] 6.833162e-111</t>
+  </si>
+  <si>
+    <t>[1] 1.890208e-85</t>
+  </si>
+  <si>
+    <t>\caption{C5.0 output for the 3-periods set. Train Error 37.6\% / 31.6\% / 33.3\%. Test Error 52.1\% / 45.2\%*** / 43.6\%***. }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2033,11 +2037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,10 +2056,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2076,10 +2080,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>423</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2096,10 +2100,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>424</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2116,10 +2120,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>425</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2134,25 +2138,25 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="K14" t="s">
-        <v>508</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,39 +2167,39 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>543</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="5" t="s">
-        <v>469</v>
+        <v>389</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2206,22 +2210,22 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="E18" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="F18" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="G18" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="K18" s="7" t="str">
         <f>D18&amp;" &amp; "&amp;E18&amp;" &amp; "&amp;F18&amp;" &amp; "&amp;G18&amp;" &amp; "&amp;H18&amp;" &amp; "&amp;I18&amp;" \\"</f>
@@ -2230,28 +2234,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>382</v>
+        <v>302</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="I19" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="str">
         <f t="shared" ref="K19:K28" si="0">D19&amp;" &amp; "&amp;E19&amp;" &amp; "&amp;F19&amp;" &amp; "&amp;G19&amp;" &amp; "&amp;H19&amp;" &amp; "&amp;I19&amp;" \\"</f>
@@ -2262,22 +2266,22 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="H20" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="I20" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2292,22 +2296,22 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2316,28 +2320,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2348,22 +2352,22 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="E23" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2378,22 +2382,22 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="E24" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="F24" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="G24" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="H24" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="I24" t="s">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2402,28 +2406,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="H25" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2434,22 +2438,22 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2464,22 +2468,22 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="K27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2488,28 +2492,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="F28" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="G28" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="K28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2520,7 +2524,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="K29" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2531,25 +2535,25 @@
         <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="K31" t="s">
-        <v>509</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="K32" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2560,15 +2564,15 @@
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,10 +2589,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>434</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2605,10 +2609,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2625,10 +2629,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>436</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2645,10 +2649,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>437</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2663,25 +2667,25 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="K50" t="s">
-        <v>508</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2692,39 +2696,39 @@
         <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>439</v>
+        <v>359</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s">
-        <v>546</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="5" t="s">
-        <v>469</v>
+        <v>389</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="K53" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2735,22 +2739,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>521</v>
+        <v>441</v>
       </c>
       <c r="H54" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="I54" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="K54" s="7" t="str">
         <f>D54&amp;" &amp; "&amp;E54&amp;" &amp; "&amp;F54&amp;" &amp; "&amp;G54&amp;" &amp; "&amp;H54&amp;" &amp; "&amp;I54&amp;" \\"</f>
@@ -2759,28 +2763,28 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="G55" t="s">
-        <v>522</v>
+        <v>442</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="I55" t="s">
-        <v>533</v>
+        <v>453</v>
       </c>
       <c r="K55" s="7" t="str">
         <f t="shared" ref="K55:K64" si="1">D55&amp;" &amp; "&amp;E55&amp;" &amp; "&amp;F55&amp;" &amp; "&amp;G55&amp;" &amp; "&amp;H55&amp;" &amp; "&amp;I55&amp;" \\"</f>
@@ -2791,22 +2795,22 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="3" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>512</v>
+        <v>432</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="H56" t="s">
-        <v>472</v>
+        <v>392</v>
       </c>
       <c r="I56" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
       <c r="K56" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2821,22 +2825,22 @@
         <v>21</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="I57" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="K57" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2845,28 +2849,28 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>514</v>
+        <v>434</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>525</v>
+        <v>445</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="I58" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="K58" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2877,22 +2881,22 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="3" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>515</v>
+        <v>435</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="G59" t="s">
-        <v>526</v>
+        <v>446</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I59" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="K59" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2907,22 +2911,22 @@
         <v>19</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>516</v>
+        <v>436</v>
       </c>
       <c r="F60" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="G60" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="H60" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="I60" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
       <c r="K60" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2931,28 +2935,28 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>442</v>
+        <v>362</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>517</v>
+        <v>437</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>528</v>
+        <v>448</v>
       </c>
       <c r="H61" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="K61" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2963,22 +2967,22 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="3" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>518</v>
+        <v>438</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="H62" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="K62" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2993,22 +2997,22 @@
         <v>20</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>519</v>
+        <v>439</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="I63" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
       <c r="K63" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3017,28 +3021,28 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>531</v>
+        <v>451</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="I64" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="K64" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3049,7 +3053,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="K65" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3060,25 +3064,25 @@
         <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="K67" t="s">
-        <v>509</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="K68" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3089,15 +3093,15 @@
         <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3114,10 +3118,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3134,10 +3138,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3154,10 +3158,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>448</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,10 +3178,10 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>403</v>
+        <v>323</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>449</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,10 +3198,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>450</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3214,10 +3218,10 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>405</v>
+        <v>325</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>451</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,10 +3238,10 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>452</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,10 +3258,10 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,10 +3278,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>454</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3294,10 +3298,10 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>455</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,10 +3318,10 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,10 +3338,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>457</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,10 +3358,10 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>458</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,10 +3378,10 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>413</v>
+        <v>333</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,10 +3398,10 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>414</v>
+        <v>334</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>460</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,10 +3418,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>461</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,10 +3438,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,10 +3458,10 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>417</v>
+        <v>337</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>463</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,10 +3478,10 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>464</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,10 +3498,10 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>465</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,10 +3518,10 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,10 +3538,10 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>467</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,10 +3558,10 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>468</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3587,29 +3591,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3617,123 +3627,344 @@
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>467</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="J3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>508</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>509</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3">
+        <v>52.87847</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40.1723</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="3">
+        <v>83.452100000000002</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>C7&amp;" &amp; "&amp;D7&amp;" &amp; "&amp;E7&amp;" &amp; "&amp;F7&amp;" &amp; "&amp;G7&amp;" &amp; "&amp;H7&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 52.87847 &amp; SDofDomBanks &amp; 40.1723 &amp; SDdomBanksdir &amp; 83.4521 \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44.907890000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30.039870000000001</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="3">
+        <v>69.058899999999994</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" ref="J8:J17" si="0">C8&amp;" &amp; "&amp;D8&amp;" &amp; "&amp;E8&amp;" &amp; "&amp;F8&amp;" &amp; "&amp;G8&amp;" &amp; "&amp;H8&amp;" \\"</f>
+        <v>SMIprev &amp; 44.90789 &amp; SDdomBanksdir &amp; 30.03987 &amp; SMIprev &amp; 69.0589 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23.61993</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3">
+        <v>27.149069999999998</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="3">
+        <v>29.898330000000001</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFUSD &amp; 23.61993 &amp; Libor3M_CHF &amp; 27.14907 &amp; Libor3M_CHF &amp; 29.89833 \\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>510</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.30331</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="3">
+        <v>22.496639999999999</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3">
+        <v>17.839559999999999</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFEUR &amp; 13.30331 &amp; CHFUSD &amp; 22.49664 &amp; SDofDomBanks &amp; 17.83956 \\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.19309</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14.74295</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9.0594889999999992</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ChgSDdomBanks &amp; 10.19309 &amp; Gov10yr &amp; 14.74295 &amp; CHFUSD &amp; 9.059489 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.9235480000000003</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13.91353</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.7483300000000002</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SDofDomBanks &amp; 6.923548 &amp; ChgSDdomBanks &amp; 13.91353 &amp; ChgSDdomBanks &amp; 5.74833 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>511</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.7593209999999999</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="3">
+        <v>11.51295</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5.5843470000000002</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov3yr &amp; 6.759321 &amp; Gov3yr &amp; 11.51295 &amp; Gov3yr &amp; 5.584347 \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.2095149999999997</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3.0333459999999999</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4.8415330000000001</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov10yr &amp; 4.209515 &amp; CHFEUR &amp; 3.033346 &amp; CHFEUR &amp; 4.841533 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.1008310000000003</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.9835469999999999</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.5616849999999998</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Libor3M_CHF &amp; 4.100831 &amp; SMIprev &amp; 1.983547 &amp; Gov10yr &amp; 4.561685 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>512</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -3741,22 +3972,37 @@
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="J18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>513</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>473</v>
       </c>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="J19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="J20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3764,137 +4010,361 @@
         <v>15</v>
       </c>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>514</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>58</v>
+        <v>515</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="J25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>516</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3">
+        <v>41.891480000000001</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="3">
+        <v>30.070910000000001</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="3">
+        <v>42.835569999999997</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f>C29&amp;" &amp; "&amp;D29&amp;" &amp; "&amp;E29&amp;" &amp; "&amp;F29&amp;" &amp; "&amp;G29&amp;" &amp; "&amp;H29&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 41.89148 &amp; SDofDomBanks &amp; 30.07091 &amp; SDdomBanksdir &amp; 42.83557 \\</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="3">
+        <v>23.94923</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3">
+        <v>18.02948</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="3">
+        <v>32.833829999999999</v>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f t="shared" ref="J30:J39" si="1">C30&amp;" &amp; "&amp;D30&amp;" &amp; "&amp;E30&amp;" &amp; "&amp;F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" \\"</f>
+        <v>SMIprev &amp; 23.94923 &amp; Libor3M_CHF &amp; 18.02948 &amp; SMIprev &amp; 32.83383 \\</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3">
+        <v>11.18784</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="3">
+        <v>16.05517</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9.4454949999999993</v>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>CHFUSD &amp; 11.18784 &amp; SDdomBanksdir &amp; 16.05517 &amp; Libor3M_CHF &amp; 9.445495 \\</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6.7453510000000003</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10.489610000000001</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="3">
+        <v>7.2586529999999998</v>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>CHFEUR &amp; 6.745351 &amp; CHFUSD &amp; 10.48961 &amp; SDofDomBanks &amp; 7.258653 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5.1890679999999998</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="3">
+        <v>9.6032209999999996</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2.1753939999999998</v>
+      </c>
+      <c r="J33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>ChgSDdomBanks &amp; 5.189068 &amp; ChgSDdomBanks &amp; 9.603221 &amp; CHFUSD &amp; 2.175394 \\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>518</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3.4222969999999999</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6.9831029999999998</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.7779510000000001</v>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gov3yr &amp; 3.422297 &amp; Gov3yr &amp; 6.983103 &amp; ChgSDdomBanks &amp; 1.777951 \\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3.0903719999999999</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6.2483839999999997</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.45208</v>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDofDomBanks &amp; 3.090372 &amp; Gov10yr &amp; 6.248384 &amp; Gov10yr &amp; 1.45208 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.4376859999999998</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.541658</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.3349489999999999</v>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Libor3M_CHF &amp; 2.437686 &amp; CHFEUR &amp; 1.541658 &amp; Gov3yr &amp; 1.334949 \\</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>519</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.0866820000000001</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.97846679999999997</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.88608149999999997</v>
+      </c>
+      <c r="J37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gov10yr &amp; 2.086682 &amp; SMIprev &amp; 0.9784668 &amp; CHFEUR &amp; 0.8860815 \\</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="J38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3902,22 +4372,43 @@
         <v>16</v>
       </c>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="1"/>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>520</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+      <c r="J40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="J41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3925,22 +4416,25 @@
         <v>17</v>
       </c>
       <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>64</v>
+        <v>521</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>481</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -3949,21 +4443,21 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>522</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>482</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>23</v>
       </c>
@@ -3974,10 +4468,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>523</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="C49" s="3"/>
     </row>
@@ -3997,10 +4491,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>524</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>484</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -4020,10 +4514,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>68</v>
+        <v>525</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>485</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -4043,10 +4537,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>69</v>
+        <v>526</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="C58" s="3"/>
     </row>
@@ -4066,10 +4560,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>527</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>112</v>
+        <v>487</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -4089,10 +4583,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>113</v>
+        <v>488</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -4112,10 +4606,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>114</v>
+        <v>489</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -4135,10 +4629,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>530</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -4149,19 +4643,19 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>531</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>116</v>
+        <v>491</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -4181,10 +4675,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>532</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -4204,10 +4698,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -4227,10 +4721,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>78</v>
+        <v>494</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -4250,10 +4744,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -4264,19 +4758,19 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="C88" s="3"/>
     </row>
@@ -4296,10 +4790,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>536</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>497</v>
       </c>
       <c r="C91" s="3"/>
     </row>
@@ -4319,10 +4813,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>83</v>
+        <v>537</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>123</v>
+        <v>498</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -4342,10 +4836,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>84</v>
+        <v>538</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>124</v>
+        <v>499</v>
       </c>
       <c r="C97" s="3"/>
     </row>
@@ -4365,10 +4859,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>85</v>
+        <v>539</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -4379,7 +4873,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>43</v>
@@ -4388,10 +4882,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>540</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="C103" s="3"/>
     </row>
@@ -4402,19 +4896,19 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>87</v>
+        <v>541</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>127</v>
+        <v>502</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -4428,16 +4922,16 @@
         <v>40</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>88</v>
+        <v>542</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>128</v>
+        <v>503</v>
       </c>
       <c r="C109" s="4"/>
     </row>
@@ -4455,10 +4949,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>89</v>
+        <v>543</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>129</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,10 +4969,10 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>90</v>
+        <v>544</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>130</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,10 +4989,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>91</v>
+        <v>545</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>131</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -4515,10 +5009,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>92</v>
+        <v>546</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>132</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,12 +5483,16 @@
       <c r="A273" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="G16:H40">
+    <sortCondition descending="1" ref="H16:H40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5010,34 +5508,34 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5046,18 +5544,18 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5066,18 +5564,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5086,10 +5584,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5097,10 +5595,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -5115,10 +5613,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5126,16 +5624,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="I16" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,35 +5643,35 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="I18" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5181,59 +5679,59 @@
       <c r="B20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="I22" s="7" t="str">
         <f>D22&amp;" &amp; "&amp;E22&amp;" &amp; "&amp;F22&amp;" &amp; "&amp;G22&amp;" &amp; "&amp;H22&amp;" \\"</f>
@@ -5244,19 +5742,19 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" ref="I23:I29" si="0">D23&amp;" &amp; "&amp;E23&amp;" &amp; "&amp;F23&amp;" &amp; "&amp;G23&amp;" &amp; "&amp;H23&amp;" \\"</f>
@@ -5265,25 +5763,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5292,25 +5790,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5321,19 +5819,19 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="3" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="I26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5342,25 +5840,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="H27" t="s">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="I27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5369,25 +5867,25 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5398,19 +5896,19 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="3" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="H29" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5419,25 +5917,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="I30" s="7" t="str">
         <f>D30&amp;" &amp; "&amp;E30&amp;" &amp; "&amp;F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" \\ [1ex]"</f>
@@ -5446,13 +5944,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,35 +5958,35 @@
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="I32" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5498,15 +5996,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -5514,10 +6012,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -5532,10 +6030,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -5543,10 +6041,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -5561,18 +6059,18 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -5583,19 +6081,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -5606,19 +6104,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="D49" s="3"/>
     </row>
@@ -5629,19 +6127,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5650,18 +6148,18 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5670,19 +6168,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
@@ -5694,20 +6192,20 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="F61" s="3"/>
     </row>
@@ -5719,19 +6217,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
@@ -5743,20 +6241,20 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="F67" s="3"/>
     </row>
@@ -5768,19 +6266,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
@@ -5791,19 +6289,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,18 +6310,18 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5832,18 +6330,18 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5860,10 +6358,10 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5876,7 +6374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5895,46 +6393,46 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="6"/>
@@ -5950,13 +6448,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -5964,19 +6462,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5987,41 +6485,41 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="J9" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6032,35 +6530,35 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="J11" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>66.06</v>
@@ -6069,10 +6567,10 @@
         <v>87.33</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="I13" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="J13" s="7" t="str">
         <f t="shared" ref="J13:J19" si="0">E13&amp;" &amp; "&amp;F13&amp;" &amp; "&amp;G13&amp;" &amp; "&amp;H13&amp;" &amp; "&amp;I13&amp;" \\"</f>
@@ -6084,19 +6582,19 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="G14">
         <v>24.87</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="I14" t="s">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="J14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6105,28 +6603,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="J15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6135,28 +6633,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" t="s">
-        <v>341</v>
-      </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="J16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6168,19 +6666,19 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="J17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6189,28 +6687,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="I18" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="J18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6219,28 +6717,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="G19" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="H19" t="s">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="J19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6252,19 +6750,19 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="I20" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="J20" s="7" t="str">
         <f>E20&amp;" &amp; "&amp;F20&amp;" &amp; "&amp;G20&amp;" &amp; "&amp;H20&amp;" &amp; "&amp;I20&amp;" \\ [1ex]"</f>
@@ -6273,32 +6771,32 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="E22" s="3"/>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6307,37 +6805,37 @@
       <c r="C23" s="1"/>
       <c r="E23" s="3"/>
       <c r="J23" t="s">
-        <v>375</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3"/>
       <c r="J24" t="s">
-        <v>376</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="E25" s="3"/>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6348,25 +6846,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -6380,13 +6878,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -6394,13 +6892,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -6416,13 +6914,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -6430,13 +6928,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -6452,13 +6950,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -6466,13 +6964,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6482,24 +6980,24 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>363</v>
+        <v>283</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6509,24 +7007,24 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6536,24 +7034,24 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
@@ -6565,26 +7063,26 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6596,24 +7094,24 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6623,24 +7121,24 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -6650,24 +7148,24 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6677,24 +7175,24 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -6704,24 +7202,24 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6731,24 +7229,24 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6758,24 +7256,24 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>373</v>
+        <v>293</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6785,24 +7283,24 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6823,13 +7321,13 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs.xlsx
+++ b/Outputs.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3967706E-291A-4BCD-8DAC-E525C278E761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86473A-96EC-3447-B4D0-348AAFA5B162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15860" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecastSMI_allPeriods" sheetId="1" r:id="rId1"/>
     <sheet name="currentSMI_allPeriods" sheetId="2" r:id="rId2"/>
     <sheet name="intSMI_FX1.20" sheetId="3" r:id="rId3"/>
     <sheet name="intSMI_SD75quantile" sheetId="4" r:id="rId4"/>
+    <sheet name="currentSPIEX_allPeriods" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="640">
   <si>
     <t>&gt; forecastSMI</t>
   </si>
@@ -1672,6 +1674,282 @@
   </si>
   <si>
     <t>\caption{C5.0 output for the 3-periods set. Train Error 37.6\% / 31.6\% / 33.3\%. Test Error 52.1\% / 45.2\%*** / 43.6\%***. }</t>
+  </si>
+  <si>
+    <t>[1] 31.36647</t>
+  </si>
+  <si>
+    <t>[1] 46.08648</t>
+  </si>
+  <si>
+    <t>[1] 9.583548e-119</t>
+  </si>
+  <si>
+    <t>[1] 19.17756</t>
+  </si>
+  <si>
+    <t>[1] 17.8774</t>
+  </si>
+  <si>
+    <t>[1] 15.65182</t>
+  </si>
+  <si>
+    <t>[1] 14.02792</t>
+  </si>
+  <si>
+    <t>[1] 11.17388</t>
+  </si>
+  <si>
+    <t>$preCapVarImp.SPIEXprev</t>
+  </si>
+  <si>
+    <t>[1] 6.08844</t>
+  </si>
+  <si>
+    <t>[1] 5.954048</t>
+  </si>
+  <si>
+    <t>[1] 5.919327</t>
+  </si>
+  <si>
+    <t>[1] 4.129601</t>
+  </si>
+  <si>
+    <t>[1] 31.22084</t>
+  </si>
+  <si>
+    <t>[1] 47.46252</t>
+  </si>
+  <si>
+    <t>[1] 3.399208e-14</t>
+  </si>
+  <si>
+    <t>[1] 25.72687</t>
+  </si>
+  <si>
+    <t>[1] 14.61424</t>
+  </si>
+  <si>
+    <t>$capVarImp.SPIEXprev</t>
+  </si>
+  <si>
+    <t>[1] 10.19047</t>
+  </si>
+  <si>
+    <t>[1] 10.15572</t>
+  </si>
+  <si>
+    <t>[1] 10.10669</t>
+  </si>
+  <si>
+    <t>[1] 9.874975</t>
+  </si>
+  <si>
+    <t>[1] 8.699993</t>
+  </si>
+  <si>
+    <t>[1] 6.852358</t>
+  </si>
+  <si>
+    <t>[1] 3.778681</t>
+  </si>
+  <si>
+    <t>[1] 30.77885</t>
+  </si>
+  <si>
+    <t>[1] 45.74843</t>
+  </si>
+  <si>
+    <t>[1] 3.192105e-149</t>
+  </si>
+  <si>
+    <t>[1] 30.63187</t>
+  </si>
+  <si>
+    <t>[1] 24.96955</t>
+  </si>
+  <si>
+    <t>$postCapVarImp.SPIEXprev</t>
+  </si>
+  <si>
+    <t>[1] 20.10085</t>
+  </si>
+  <si>
+    <t>[1] 9.710309</t>
+  </si>
+  <si>
+    <t>[1] 4.925069</t>
+  </si>
+  <si>
+    <t>[1] 3.301976</t>
+  </si>
+  <si>
+    <t>[1] 2.545118</t>
+  </si>
+  <si>
+    <t>[1] 2.240654</t>
+  </si>
+  <si>
+    <t>[1] 1.574598</t>
+  </si>
+  <si>
+    <t>[1] 1.063242e-17</t>
+  </si>
+  <si>
+    <t>[1] 1.928913e-06</t>
+  </si>
+  <si>
+    <t>[1] 2.346666e-05</t>
+  </si>
+  <si>
+    <t>[1] 4.230534e-06</t>
+  </si>
+  <si>
+    <t>[1] 31.42137</t>
+  </si>
+  <si>
+    <t>[1] 46.19256</t>
+  </si>
+  <si>
+    <t>[1] 1.954611e-111</t>
+  </si>
+  <si>
+    <t>[1] 39.98284</t>
+  </si>
+  <si>
+    <t>[1] 31.95715</t>
+  </si>
+  <si>
+    <t>[1] 27.76266</t>
+  </si>
+  <si>
+    <t>[1] 23.71982</t>
+  </si>
+  <si>
+    <t>[1] 23.06595</t>
+  </si>
+  <si>
+    <t>[1] 14.23307</t>
+  </si>
+  <si>
+    <t>[1] 12.06733</t>
+  </si>
+  <si>
+    <t>[1] 11.92813</t>
+  </si>
+  <si>
+    <t>[1] 8.330342</t>
+  </si>
+  <si>
+    <t>[1] 31.71261</t>
+  </si>
+  <si>
+    <t>[1] 46.50366</t>
+  </si>
+  <si>
+    <t>[1] 5.34863e-24</t>
+  </si>
+  <si>
+    <t>[1] 22.12355</t>
+  </si>
+  <si>
+    <t>[1] 15.86004</t>
+  </si>
+  <si>
+    <t>[1] 14.91203</t>
+  </si>
+  <si>
+    <t>[1] 13.85834</t>
+  </si>
+  <si>
+    <t>[1] 13.74247</t>
+  </si>
+  <si>
+    <t>[1] 13.06773</t>
+  </si>
+  <si>
+    <t>[1] 12.29929</t>
+  </si>
+  <si>
+    <t>[1] 10.74444</t>
+  </si>
+  <si>
+    <t>[1] 7.144735</t>
+  </si>
+  <si>
+    <t>[1] 30.47605</t>
+  </si>
+  <si>
+    <t>[1] 45.80235</t>
+  </si>
+  <si>
+    <t>[1] 3.550452e-150</t>
+  </si>
+  <si>
+    <t>[1] 65.74291</t>
+  </si>
+  <si>
+    <t>[1] 61.75263</t>
+  </si>
+  <si>
+    <t>[1] 48.35108</t>
+  </si>
+  <si>
+    <t>[1] 26.281</t>
+  </si>
+  <si>
+    <t>[1] 14.02581</t>
+  </si>
+  <si>
+    <t>[1] 11.12771</t>
+  </si>
+  <si>
+    <t>[1] 8.594454</t>
+  </si>
+  <si>
+    <t>[1] 7.343456</t>
+  </si>
+  <si>
+    <t>[1] 5.555457</t>
+  </si>
+  <si>
+    <t>[1] 0.2409567</t>
+  </si>
+  <si>
+    <t>[1] 6.756003e-147</t>
+  </si>
+  <si>
+    <t>[1] 2.47214e-08</t>
+  </si>
+  <si>
+    <t>[1] 0.0003983439</t>
+  </si>
+  <si>
+    <t>SPIEXprev</t>
+  </si>
+  <si>
+    <t>ChgSDDomBanks</t>
+  </si>
+  <si>
+    <t>\caption{C5.0 output for the 3-periods set. Train Error 31.4\% / 31.7\% / 30.47\%. Test Error 46.2\%*** / 46.5\%*** / 45.8\%***. }</t>
+  </si>
+  <si>
+    <t>Libor3M\_CHF</t>
+  </si>
+  <si>
+    <t>Goy10yr</t>
+  </si>
+  <si>
+    <t>SDDomBanksdir</t>
+  </si>
+  <si>
+    <t>ChangeSDDomBanks</t>
+  </si>
+  <si>
+    <t>Goy3yr</t>
+  </si>
+  <si>
+    <t>\caption{C5.0 output for the 3-periods set. Train Error 37.6\% / 31.6\% / 33.3\%. Test Error 52.1\%*** / 45.2\%*** / 43.6\%***. }</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +2038,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2040,21 +2318,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -2062,7 +2340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>297</v>
       </c>
@@ -2086,11 +2364,11 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>298</v>
       </c>
@@ -2106,11 +2384,11 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>299</v>
       </c>
@@ -2126,11 +2404,11 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>300</v>
       </c>
@@ -2152,14 +2430,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="K14" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2448,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>301</v>
       </c>
@@ -2184,7 +2462,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="5" t="s">
@@ -2202,7 +2480,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2510,7 @@
         <v>SMIdir &amp; 23.29 &amp; SMIdir &amp; 17.63 &amp; SDdomBanksdir &amp; 27.79 \\</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>302</v>
       </c>
@@ -2262,7 +2540,7 @@
         <v>SDdomBanksdir &amp; 20.69 &amp; SDdomBanksdir &amp; 17.32 &amp; SMI &amp; 15.76 \\</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" t="s">
@@ -2288,7 +2566,7 @@
         <v>ChgSDdomBanks &amp; 12.99 &amp; ChgSDdomBanks &amp; 14.62 &amp; SMIdir &amp; 13.97 \\</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2596,7 @@
         <v>SDofDomBanks &amp; 8.96 &amp; Libor3M_CHF &amp; 12.97 &amp; Gov10yr &amp; 8.97 \\</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>303</v>
       </c>
@@ -2348,7 +2626,7 @@
         <v>CHFUSD &amp; 8.54 &amp; SDofDomBanks &amp; 10.60 &amp; ChgSDdomBanks &amp; 7.21 \\</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" t="s">
@@ -2374,7 +2652,7 @@
         <v>SMI &amp; 6.18 &amp; CHFEUR &amp; 9.51 &amp; Libor3M_CHF &amp; 6.87 \\</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2404,7 +2682,7 @@
         <v>RetSMI &amp; 4.73 &amp; RetSMI &amp; 7.36 &amp; RetSMI &amp; 6.61 \\</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>304</v>
       </c>
@@ -2434,7 +2712,7 @@
         <v>Gov3yr &amp; 4.63 &amp; CHFUSD &amp; 3.58 &amp; CHFEUR &amp; 3.65 \\</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" t="s">
@@ -2460,7 +2738,7 @@
         <v>Gov10yr &amp; 4.26 &amp; Gov3yr &amp; 2.96 &amp; SDofDomBanks &amp; 3.38 \\</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -2490,7 +2768,7 @@
         <v>Libor3M_CHF &amp; 3.39 &amp; Gov10yr &amp; 1.85 &amp; CHFUSD &amp; 3.14 \\</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>305</v>
       </c>
@@ -2520,14 +2798,14 @@
         <v>CHFEUR &amp; 2.33 &amp; SMI &amp; 1.59 &amp; Gov3yr &amp; 2.65 \\</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="K29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -2538,7 +2816,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>306</v>
       </c>
@@ -2549,14 +2827,14 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="K32" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>307</v>
       </c>
@@ -2575,11 +2853,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>308</v>
       </c>
@@ -2595,11 +2873,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -2607,7 +2885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>309</v>
       </c>
@@ -2615,11 +2893,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>310</v>
       </c>
@@ -2635,11 +2913,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2647,7 +2925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>311</v>
       </c>
@@ -2655,11 +2933,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2670,7 +2948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>312</v>
       </c>
@@ -2681,14 +2959,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="K50" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -2699,7 +2977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>313</v>
       </c>
@@ -2713,7 +2991,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="5" t="s">
@@ -2731,7 +3009,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>19</v>
       </c>
@@ -2761,7 +3039,7 @@
         <v>SMIdir &amp; 56.01 &amp; Libor3M_CHF &amp; 72.33 &amp; SMI &amp; 85.53 \\</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>314</v>
       </c>
@@ -2791,7 +3069,7 @@
         <v>SDdomBanksdir &amp; 48.60 &amp; ChgSDdomBanks &amp; 61.99 &amp; SDdomBanksdir &amp; 70.53 \\</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="3" t="s">
@@ -2817,7 +3095,7 @@
         <v>SDofDomBanks &amp; 44.06 &amp; SMIdir &amp; 48.17 &amp; SMIdir &amp; 51.51 \\</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>20</v>
       </c>
@@ -2847,7 +3125,7 @@
         <v>ChgSDdomBanks &amp; 37.07 &amp; SDdomBanksdir &amp; 47.96 &amp; Libor3M_CHF &amp; 49.74 \\</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>315</v>
       </c>
@@ -2877,7 +3155,7 @@
         <v>CHFUSD &amp; 30.02 &amp; CHFEUR &amp; 46.51 &amp; ChgSDdomBanks &amp; 40.65 \\</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="3" t="s">
@@ -2903,7 +3181,7 @@
         <v>RetSMI &amp; 27.55 &amp; SDofDomBanks &amp; 44.82 &amp; Gov10yr &amp; 37.80 \\</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -2933,7 +3211,7 @@
         <v>SMI &amp; 26.37 &amp; RetSMI &amp; 38.04 &amp; RetSMI &amp; 36.64 \\</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>316</v>
       </c>
@@ -2963,7 +3241,7 @@
         <v>Gov3yr &amp; 18.60 &amp; CHFUSD &amp; 20.38 &amp; CHFEUR &amp; 24.54 \\</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="3" t="s">
@@ -2989,7 +3267,7 @@
         <v>Gov10yr &amp; 16.99 &amp; Gov3yr &amp; 14.89 &amp; CHFUSD &amp; 22.75 \\</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>22</v>
       </c>
@@ -3019,7 +3297,7 @@
         <v>Libor3M_CHF &amp; 14.84 &amp; Gov10yr &amp; 11.97 &amp; SDofDomBanks &amp; 19.43 \\</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>317</v>
       </c>
@@ -3049,14 +3327,14 @@
         <v>CHFEUR &amp; 12.40 &amp; SMI &amp; 8.53 &amp; Gov3yr &amp; 18.58 \\</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="K65" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>23</v>
       </c>
@@ -3067,7 +3345,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>318</v>
       </c>
@@ -3078,14 +3356,14 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="K68" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>24</v>
       </c>
@@ -3096,7 +3374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>319</v>
       </c>
@@ -3104,11 +3382,11 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>25</v>
       </c>
@@ -3116,7 +3394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>320</v>
       </c>
@@ -3124,11 +3402,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>26</v>
       </c>
@@ -3136,7 +3414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>321</v>
       </c>
@@ -3144,11 +3422,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>27</v>
       </c>
@@ -3156,7 +3434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>322</v>
       </c>
@@ -3164,11 +3442,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>28</v>
       </c>
@@ -3176,7 +3454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>323</v>
       </c>
@@ -3184,11 +3462,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>29</v>
       </c>
@@ -3196,7 +3474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>324</v>
       </c>
@@ -3204,11 +3482,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -3216,7 +3494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>325</v>
       </c>
@@ -3224,11 +3502,11 @@
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>31</v>
       </c>
@@ -3236,7 +3514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>326</v>
       </c>
@@ -3244,11 +3522,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3256,7 +3534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>327</v>
       </c>
@@ -3264,11 +3542,11 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
@@ -3276,7 +3554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>328</v>
       </c>
@@ -3284,11 +3562,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>34</v>
       </c>
@@ -3296,7 +3574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>329</v>
       </c>
@@ -3304,11 +3582,11 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>35</v>
       </c>
@@ -3316,7 +3594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>330</v>
       </c>
@@ -3324,11 +3602,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -3336,7 +3614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>331</v>
       </c>
@@ -3344,11 +3622,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>332</v>
       </c>
@@ -3364,11 +3642,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -3376,7 +3654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>333</v>
       </c>
@@ -3384,11 +3662,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>38</v>
       </c>
@@ -3396,7 +3674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>334</v>
       </c>
@@ -3404,11 +3682,11 @@
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>40</v>
       </c>
@@ -3416,7 +3694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>335</v>
       </c>
@@ -3424,11 +3702,11 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>41</v>
       </c>
@@ -3436,7 +3714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>336</v>
       </c>
@@ -3444,11 +3722,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>337</v>
       </c>
@@ -3464,11 +3742,11 @@
         <v>383</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>43</v>
       </c>
@@ -3476,7 +3754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>338</v>
       </c>
@@ -3484,11 +3762,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>44</v>
       </c>
@@ -3496,7 +3774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>339</v>
       </c>
@@ -3504,11 +3782,11 @@
         <v>385</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>45</v>
       </c>
@@ -3516,7 +3794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>340</v>
       </c>
@@ -3524,11 +3802,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>46</v>
       </c>
@@ -3536,7 +3814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>341</v>
       </c>
@@ -3544,11 +3822,11 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>47</v>
       </c>
@@ -3556,7 +3834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>342</v>
       </c>
@@ -3564,11 +3842,11 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>48</v>
       </c>
@@ -3576,7 +3854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>49</v>
       </c>
@@ -3594,21 +3872,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -3619,7 +3897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3631,7 +3909,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>467</v>
       </c>
@@ -3642,7 +3920,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>508</v>
       </c>
@@ -3653,7 +3931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
@@ -3663,7 +3941,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,7 +3963,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>509</v>
       </c>
@@ -3715,7 +3993,7 @@
         <v>SDdomBanksdir &amp; 52.87847 &amp; SDofDomBanks &amp; 40.1723 &amp; SDdomBanksdir &amp; 83.4521 \\</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
@@ -3737,11 +4015,11 @@
         <v>69.058899999999994</v>
       </c>
       <c r="J8" s="7" t="str">
-        <f t="shared" ref="J8:J17" si="0">C8&amp;" &amp; "&amp;D8&amp;" &amp; "&amp;E8&amp;" &amp; "&amp;F8&amp;" &amp; "&amp;G8&amp;" &amp; "&amp;H8&amp;" \\"</f>
+        <f t="shared" ref="J8:J15" si="0">C8&amp;" &amp; "&amp;D8&amp;" &amp; "&amp;E8&amp;" &amp; "&amp;F8&amp;" &amp; "&amp;G8&amp;" &amp; "&amp;H8&amp;" \\"</f>
         <v>SMIprev &amp; 44.90789 &amp; SDdomBanksdir &amp; 30.03987 &amp; SMIprev &amp; 69.0589 \\</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +4049,7 @@
         <v>CHFUSD &amp; 23.61993 &amp; Libor3M_CHF &amp; 27.14907 &amp; Libor3M_CHF &amp; 29.89833 \\</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>510</v>
       </c>
@@ -3801,7 +4079,7 @@
         <v>CHFEUR &amp; 13.30331 &amp; CHFUSD &amp; 22.49664 &amp; SDofDomBanks &amp; 17.83956 \\</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
@@ -3827,7 +4105,7 @@
         <v>ChgSDdomBanks &amp; 10.19309 &amp; Gov10yr &amp; 14.74295 &amp; CHFUSD &amp; 9.059489 \\</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3857,7 +4135,7 @@
         <v>SDofDomBanks &amp; 6.923548 &amp; ChgSDdomBanks &amp; 13.91353 &amp; ChgSDdomBanks &amp; 5.74833 \\</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>511</v>
       </c>
@@ -3887,7 +4165,7 @@
         <v>Gov3yr &amp; 6.759321 &amp; Gov3yr &amp; 11.51295 &amp; Gov3yr &amp; 5.584347 \\</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
@@ -3913,7 +4191,7 @@
         <v>Gov10yr &amp; 4.209515 &amp; CHFEUR &amp; 3.033346 &amp; CHFEUR &amp; 4.841533 \\</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -3943,7 +4221,7 @@
         <v>Libor3M_CHF &amp; 4.100831 &amp; SMIprev &amp; 1.983547 &amp; Gov10yr &amp; 4.561685 \\</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>512</v>
       </c>
@@ -3954,7 +4232,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -3964,7 +4242,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -3978,7 +4256,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>513</v>
       </c>
@@ -3992,7 +4270,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -4002,7 +4280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4291,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>514</v>
       </c>
@@ -4021,14 +4299,14 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="J23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -4039,7 +4317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>515</v>
       </c>
@@ -4050,14 +4328,14 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="J26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -4071,7 +4349,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>516</v>
       </c>
@@ -4093,7 +4371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4119,7 +4397,7 @@
         <v>SDdomBanksdir &amp; 41.89148 &amp; SDofDomBanks &amp; 30.07091 &amp; SDdomBanksdir &amp; 42.83557 \\</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -4145,11 +4423,11 @@
         <v>32.833829999999999</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f t="shared" ref="J30:J39" si="1">C30&amp;" &amp; "&amp;D30&amp;" &amp; "&amp;E30&amp;" &amp; "&amp;F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" \\"</f>
+        <f t="shared" ref="J30:J37" si="1">C30&amp;" &amp; "&amp;D30&amp;" &amp; "&amp;E30&amp;" &amp; "&amp;F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" \\"</f>
         <v>SMIprev &amp; 23.94923 &amp; Libor3M_CHF &amp; 18.02948 &amp; SMIprev &amp; 32.83383 \\</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>517</v>
       </c>
@@ -4179,7 +4457,7 @@
         <v>CHFUSD &amp; 11.18784 &amp; SDdomBanksdir &amp; 16.05517 &amp; Libor3M_CHF &amp; 9.445495 \\</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
@@ -4205,7 +4483,7 @@
         <v>CHFEUR &amp; 6.745351 &amp; CHFUSD &amp; 10.48961 &amp; SDofDomBanks &amp; 7.258653 \\</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -4235,7 +4513,7 @@
         <v>ChgSDdomBanks &amp; 5.189068 &amp; ChgSDdomBanks &amp; 9.603221 &amp; CHFUSD &amp; 2.175394 \\</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>518</v>
       </c>
@@ -4265,7 +4543,7 @@
         <v>Gov3yr &amp; 3.422297 &amp; Gov3yr &amp; 6.983103 &amp; ChgSDdomBanks &amp; 1.777951 \\</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
@@ -4291,7 +4569,7 @@
         <v>SDofDomBanks &amp; 3.090372 &amp; Gov10yr &amp; 6.248384 &amp; Gov10yr &amp; 1.45208 \\</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -4321,7 +4599,7 @@
         <v>Libor3M_CHF &amp; 2.437686 &amp; CHFEUR &amp; 1.541658 &amp; Gov3yr &amp; 1.334949 \\</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>519</v>
       </c>
@@ -4351,7 +4629,7 @@
         <v>Gov10yr &amp; 2.086682 &amp; SMIprev &amp; 0.9784668 &amp; CHFEUR &amp; 0.8860815 \\</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4364,7 +4642,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -4381,7 +4659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>520</v>
       </c>
@@ -4398,7 +4676,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -4408,7 +4686,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -4420,7 +4698,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>521</v>
       </c>
@@ -4429,12 +4707,12 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -4443,7 +4721,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>522</v>
       </c>
@@ -4452,12 +4730,12 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>23</v>
       </c>
@@ -4466,7 +4744,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>523</v>
       </c>
@@ -4475,12 +4753,12 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -4489,7 +4767,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>524</v>
       </c>
@@ -4498,12 +4776,12 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4790,7 @@
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>525</v>
       </c>
@@ -4521,12 +4799,12 @@
       </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
@@ -4535,7 +4813,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>526</v>
       </c>
@@ -4544,12 +4822,12 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -4558,7 +4836,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>527</v>
       </c>
@@ -4567,12 +4845,12 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -4581,7 +4859,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>528</v>
       </c>
@@ -4590,12 +4868,12 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
@@ -4604,7 +4882,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>529</v>
       </c>
@@ -4613,12 +4891,12 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +4905,7 @@
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>530</v>
       </c>
@@ -4636,12 +4914,12 @@
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>51</v>
       </c>
@@ -4650,7 +4928,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>531</v>
       </c>
@@ -4659,12 +4937,12 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>30</v>
       </c>
@@ -4673,7 +4951,7 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>532</v>
       </c>
@@ -4682,12 +4960,12 @@
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>31</v>
       </c>
@@ -4696,7 +4974,7 @@
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>533</v>
       </c>
@@ -4705,12 +4983,12 @@
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>32</v>
       </c>
@@ -4719,7 +4997,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>494</v>
       </c>
@@ -4728,12 +5006,12 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
@@ -4742,7 +5020,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>534</v>
       </c>
@@ -4751,12 +5029,12 @@
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>52</v>
       </c>
@@ -4765,7 +5043,7 @@
       </c>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>535</v>
       </c>
@@ -4774,12 +5052,12 @@
       </c>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>39</v>
       </c>
@@ -4788,7 +5066,7 @@
       </c>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>536</v>
       </c>
@@ -4797,12 +5075,12 @@
       </c>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>41</v>
       </c>
@@ -4811,7 +5089,7 @@
       </c>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>537</v>
       </c>
@@ -4820,12 +5098,12 @@
       </c>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>42</v>
       </c>
@@ -4834,7 +5112,7 @@
       </c>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>538</v>
       </c>
@@ -4843,12 +5121,12 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>37</v>
       </c>
@@ -4857,7 +5135,7 @@
       </c>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>539</v>
       </c>
@@ -4866,12 +5144,12 @@
       </c>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>36</v>
       </c>
@@ -4880,7 +5158,7 @@
       </c>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>540</v>
       </c>
@@ -4889,12 +5167,12 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>43</v>
       </c>
@@ -4903,7 +5181,7 @@
       </c>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>541</v>
       </c>
@@ -4912,12 +5190,12 @@
       </c>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>40</v>
       </c>
@@ -4926,7 +5204,7 @@
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>542</v>
       </c>
@@ -4935,11 +5213,11 @@
       </c>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>44</v>
       </c>
@@ -4947,7 +5225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>543</v>
       </c>
@@ -4955,11 +5233,11 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>45</v>
       </c>
@@ -4967,7 +5245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>544</v>
       </c>
@@ -4975,11 +5253,11 @@
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>46</v>
       </c>
@@ -4987,7 +5265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>545</v>
       </c>
@@ -4995,11 +5273,11 @@
         <v>506</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>47</v>
       </c>
@@ -5007,7 +5285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>546</v>
       </c>
@@ -5015,11 +5293,11 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>48</v>
       </c>
@@ -5027,7 +5305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>49</v>
       </c>
@@ -5035,455 +5313,455 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="G16:H40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G16:H40">
     <sortCondition descending="1" ref="H16:H40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5499,14 +5777,14 @@
       <selection activeCell="I16" sqref="I16:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="2" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -5514,7 +5792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -5522,7 +5800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
@@ -5530,7 +5808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -5538,11 +5816,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
@@ -5550,7 +5828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -5558,11 +5836,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -5570,7 +5848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>152</v>
       </c>
@@ -5578,11 +5856,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -5593,7 +5871,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>153</v>
       </c>
@@ -5604,14 +5882,14 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -5622,7 +5900,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>154</v>
       </c>
@@ -5636,7 +5914,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="3"/>
@@ -5646,7 +5924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -5660,7 +5938,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>155</v>
       </c>
@@ -5674,7 +5952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="3"/>
@@ -5694,7 +5972,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -5711,7 +5989,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>156</v>
       </c>
@@ -5738,7 +6016,7 @@
         <v>SDdomBanksdir &amp; 52.77 &amp; 89.45 &amp; 37.58 &amp; 39.36 \\</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="3" t="s">
@@ -5761,7 +6039,7 @@
         <v>SMIprev &amp; 30.75 &amp; 55.66 &amp; 2.62 &amp; 4.23 \\</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -5788,7 +6066,7 @@
         <v>Libor3M_CHF &amp; 8.24 &amp; 23.88 &amp; 11.66 &amp; 16.10 \\</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>157</v>
       </c>
@@ -5815,7 +6093,7 @@
         <v>SDofDomBanks &amp; 2.05 &amp; 6.08 &amp; 8.16 &amp; 12.89 \\</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="3" t="s">
@@ -5838,7 +6116,7 @@
         <v>ChgSDdomBanks &amp; 1.62 &amp; 3.16 &amp; 8.52 &amp; 10.38 \\</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
@@ -5865,7 +6143,7 @@
         <v>CHFEUR &amp; 1.52 &amp; 5.63 &amp; 2.66 &amp; 2.13 \\</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -5892,7 +6170,7 @@
         <v>CHFUSD &amp; 1.17 &amp; 5.24 &amp; 11.70 &amp; 19.40 \\</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="3" t="s">
@@ -5915,7 +6193,7 @@
         <v>Gov10yr &amp; 1.01 &amp; 2.25 &amp; 3.53 &amp; 5.38 \\</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -5942,7 +6220,7 @@
         <v>Gov3yr &amp; 0.87 &amp; 2.68 &amp; 13.57 &amp; 16.87 \\ [1ex]</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>159</v>
       </c>
@@ -5953,7 +6231,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
@@ -5961,7 +6239,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -5975,7 +6253,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>160</v>
       </c>
@@ -5989,7 +6267,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="3"/>
@@ -5999,7 +6277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -6010,7 +6288,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>161</v>
       </c>
@@ -6021,14 +6299,14 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -6039,7 +6317,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>162</v>
       </c>
@@ -6050,14 +6328,14 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>69</v>
       </c>
@@ -6065,7 +6343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>163</v>
       </c>
@@ -6074,12 +6352,12 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -6088,7 +6366,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>164</v>
       </c>
@@ -6097,12 +6375,12 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>71</v>
       </c>
@@ -6111,7 +6389,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>165</v>
       </c>
@@ -6120,12 +6398,12 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -6134,7 +6412,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -6142,11 +6420,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>72</v>
       </c>
@@ -6154,7 +6432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>167</v>
       </c>
@@ -6162,11 +6440,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>73</v>
       </c>
@@ -6175,7 +6453,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>168</v>
       </c>
@@ -6185,12 +6463,12 @@
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>74</v>
       </c>
@@ -6200,7 +6478,7 @@
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>169</v>
       </c>
@@ -6209,13 +6487,13 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>76</v>
       </c>
@@ -6224,7 +6502,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>170</v>
       </c>
@@ -6234,12 +6512,12 @@
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -6249,7 +6527,7 @@
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -6258,13 +6536,13 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>79</v>
       </c>
@@ -6273,7 +6551,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>172</v>
       </c>
@@ -6283,11 +6561,11 @@
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>78</v>
       </c>
@@ -6296,7 +6574,7 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>173</v>
       </c>
@@ -6304,11 +6582,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -6316,7 +6594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>174</v>
       </c>
@@ -6324,11 +6602,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
@@ -6336,7 +6614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>175</v>
       </c>
@@ -6344,11 +6622,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>48</v>
       </c>
@@ -6356,7 +6634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
@@ -6365,7 +6643,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D33:F41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:F41">
     <sortCondition descending="1" ref="E33:E41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6377,21 +6655,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -6402,7 +6680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -6413,7 +6691,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6424,7 +6702,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -6438,7 +6716,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6446,7 +6724,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
@@ -6460,7 +6738,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -6477,7 +6755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6488,7 +6766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -6505,7 +6783,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -6522,7 +6800,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6533,7 +6811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -6547,7 +6825,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -6577,7 +6855,7 @@
         <v>SDdomBanksdir &amp; 66.06 &amp; 87.33 &amp; 62.15 &amp; 66.00 \\</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6601,7 +6879,7 @@
         <v>SDofDomBanks &amp; 10.37 &amp; 24.87 &amp; 0.31 &amp; 2.52 \\</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -6631,7 +6909,7 @@
         <v>SMIprev &amp; 8.00 &amp; 20.49 &amp; 7.58 &amp; 14.35 \\</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
@@ -6661,7 +6939,7 @@
         <v>Gov3yr &amp; 4.13 &amp; 9.36 &amp; 6.79 &amp; 5.65 \\</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6685,7 +6963,7 @@
         <v>CHFUSD &amp; 3.77 &amp; 5.98 &amp; 4.74 &amp; 7.25 \\</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -6715,7 +6993,7 @@
         <v>Gov10yr &amp; 2.46 &amp; 7.04 &amp; 1.44 &amp; 1.80 \\</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
@@ -6745,7 +7023,7 @@
         <v>Libor3M_CHF &amp; 2.10 &amp; 5.02 &amp; 11.42 &amp; 11.32 \\</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6769,7 +7047,7 @@
         <v>CHFEUR &amp; 1.90 &amp; 4.13 &amp; 5.57 &amp; 2.56 \\ [1ex]</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -6784,7 +7062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -6799,7 +7077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6808,7 +7086,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -6823,7 +7101,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -6838,13 +7116,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -6856,7 +7134,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -6868,7 +7146,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6876,7 +7154,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -6890,7 +7168,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
@@ -6904,7 +7182,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6912,7 +7190,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -6926,7 +7204,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>94</v>
       </c>
@@ -6940,7 +7218,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6948,7 +7226,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -6962,7 +7240,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -6973,12 +7251,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>69</v>
       </c>
@@ -6989,7 +7267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>96</v>
       </c>
@@ -7000,12 +7278,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>70</v>
       </c>
@@ -7016,7 +7294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
@@ -7027,12 +7305,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -7043,7 +7321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
@@ -7056,12 +7334,12 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -7074,7 +7352,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -7085,14 +7363,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>78</v>
       </c>
@@ -7103,7 +7381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
@@ -7114,12 +7392,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
@@ -7130,7 +7408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>101</v>
       </c>
@@ -7141,12 +7419,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>79</v>
       </c>
@@ -7157,7 +7435,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>102</v>
       </c>
@@ -7168,12 +7446,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
@@ -7184,7 +7462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>103</v>
       </c>
@@ -7195,12 +7473,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
@@ -7211,7 +7489,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>104</v>
       </c>
@@ -7222,12 +7500,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
@@ -7238,7 +7516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>105</v>
       </c>
@@ -7249,12 +7527,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
@@ -7265,7 +7543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
@@ -7276,12 +7554,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -7292,7 +7570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>107</v>
       </c>
@@ -7303,12 +7581,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>48</v>
       </c>
@@ -7319,7 +7597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -7331,9 +7609,1248 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="E29:G36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E29:G36">
     <sortCondition descending="1" ref="F29:F36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4E7123-BBFB-D741-9FCB-C307B788DBE5}">
+  <dimension ref="A1:M123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" t="s">
+        <v>591</v>
+      </c>
+      <c r="M3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="3">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="3">
+        <v>22.12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="3">
+        <v>65.739999999999995</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f>F7&amp;" &amp; "&amp;G7&amp;" &amp; "&amp;H7&amp;" &amp; "&amp;I7&amp;" &amp; "&amp;J7&amp;" &amp; "&amp;K7&amp;" \\"</f>
+        <v>Libor3M_CHF &amp; 39.98 &amp; SDdomBanksdir &amp; 22.12 &amp; SDdomBanksdir &amp; 65.74 \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="3">
+        <v>31.96</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15.86</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="3">
+        <v>61.75</v>
+      </c>
+      <c r="M8" s="7" t="str">
+        <f t="shared" ref="M8:M15" si="0">F8&amp;" &amp; "&amp;G8&amp;" &amp; "&amp;H8&amp;" &amp; "&amp;I8&amp;" &amp; "&amp;J8&amp;" &amp; "&amp;K8&amp;" \\"</f>
+        <v>CHFEUR &amp; 31.96 &amp; CHFEUR &amp; 15.86 &amp; CHFUSD &amp; 61.75 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B9" t="s">
+        <v>593</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27.76</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="3">
+        <v>14.91</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K9" s="3">
+        <v>48.35</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHFUSD &amp; 27.76 &amp; ChgSDdomBanks &amp; 14.91 &amp; SPIEXprev &amp; 48.35 \\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="3">
+        <v>23.72</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="3">
+        <v>13.86</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="3">
+        <v>26.28</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SDdomBanksdir &amp; 23.72 &amp; SDofDomBanks &amp; 13.86 &amp; Libor3M_CHF &amp; 26.28 \\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="3">
+        <v>23.07</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="3">
+        <v>13.74</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="3">
+        <v>14.03</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SDofDomBanks &amp; 23.07 &amp; Gov3yr &amp; 13.74 &amp; CHFEUR &amp; 14.03 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B12" t="s">
+        <v>594</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14.23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13.07</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11.13</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SPIEXprev &amp; 14.23 &amp; SPIEXprev &amp; 13.07 &amp; Gov10yr &amp; 11.13 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12.06</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="3">
+        <v>8.59</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov3yr &amp; 12.06 &amp; CHFUSD &amp; 12.3 &amp; SDofDomBanks &amp; 8.59 \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11.92</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="M14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ChgSDdomBanks &amp; 11.92 &amp; Libor3M_CHF &amp; 10.74 &amp; ChgSDDomBanks &amp; 7.34 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="M15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gov10yr &amp; 8.33 &amp; Gov10yr &amp; 7.14 &amp; Gov3yr &amp; 5.56 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B18" t="s">
+        <v>596</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="M18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="M19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="M20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" t="s">
+        <v>597</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B24" t="s">
+        <v>598</v>
+      </c>
+      <c r="M24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" t="s">
+        <v>556</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" t="s">
+        <v>599</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F28" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G29" s="3">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="3">
+        <v>25.73</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K29" s="3">
+        <v>30.63</v>
+      </c>
+      <c r="M29" s="7" t="str">
+        <f>F29&amp;" &amp; "&amp;G29&amp;" &amp; "&amp;H29&amp;" &amp; "&amp;I29&amp;" &amp; "&amp;J29&amp;" &amp; "&amp;K29&amp;" \\"</f>
+        <v>Libor3M\_CHF &amp; 19.17 &amp; SDdomBanksdir &amp; 25.73 &amp; SDDomBanksdir &amp; 30.63 \\</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" t="s">
+        <v>600</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="3">
+        <v>17.87</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="3">
+        <v>14.61</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="3">
+        <v>24.97</v>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f t="shared" ref="M30:M37" si="1">F30&amp;" &amp; "&amp;G30&amp;" &amp; "&amp;H30&amp;" &amp; "&amp;I30&amp;" &amp; "&amp;J30&amp;" &amp; "&amp;K30&amp;" \\"</f>
+        <v>SDdomBanksdir &amp; 17.87 &amp; CHFEUR &amp; 14.61 &amp; CHFUSD &amp; 24.97 \\</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="I31" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K31" s="3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>CHFEUR &amp; 15.65 &amp; SPIEXprev &amp; 10.19 &amp; SPIEXprev &amp; 20.1 \\</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="3">
+        <v>14.02</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="3">
+        <v>10.15</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="K32" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>CHFUSD &amp; 14.02 &amp; ChgSDdomBanks &amp; 10.15 &amp; Libor3M\_CHF &amp; 9.71 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33" t="s">
+        <v>601</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="3">
+        <v>11.17</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4.93</v>
+      </c>
+      <c r="M33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SDofDomBanks &amp; 11.17 &amp; Gov3yr &amp; 10.11 &amp; CHFEUR &amp; 4.93 \\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6.09</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="3">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="M34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SPIEXprev &amp; 6.09 &amp; CHFUSD &amp; 9.87 &amp; Gov10yr &amp; 3.3 \\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gov3yr &amp; 5.95 &amp; Libor3M\_CHF &amp; 8.7 &amp; SDofDomBanks &amp; 2.55 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36" t="s">
+        <v>602</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5.91</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="3">
+        <v>6.85</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="K36" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>ChgSDdomBanks &amp; 5.91 &amp; SDofDomBanks &amp; 6.85 &amp; ChangeSDDomBanks &amp; 2.24 \\</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4.13</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3.78</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="M37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Gov10yr &amp; 4.13 &amp; Goy10yr &amp; 3.78 &amp; Goy3yr &amp; 1.57 \\</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="3"/>
+      <c r="M38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>561</v>
+      </c>
+      <c r="B39" t="s">
+        <v>603</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="1"/>
+      <c r="M39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="3"/>
+      <c r="M40" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="M41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>562</v>
+      </c>
+      <c r="B42" t="s">
+        <v>604</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="M42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>564</v>
+      </c>
+      <c r="B48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>565</v>
+      </c>
+      <c r="B51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>566</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>567</v>
+      </c>
+      <c r="B54" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>568</v>
+      </c>
+      <c r="B57" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>569</v>
+      </c>
+      <c r="B60" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>570</v>
+      </c>
+      <c r="B63" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>571</v>
+      </c>
+      <c r="B66" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>572</v>
+      </c>
+      <c r="B69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>573</v>
+      </c>
+      <c r="B72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>575</v>
+      </c>
+      <c r="B78" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>576</v>
+      </c>
+      <c r="B81" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>577</v>
+      </c>
+      <c r="B84" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>578</v>
+      </c>
+      <c r="B87" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>579</v>
+      </c>
+      <c r="B89" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>580</v>
+      </c>
+      <c r="B90" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>581</v>
+      </c>
+      <c r="B93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>582</v>
+      </c>
+      <c r="B96" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>583</v>
+      </c>
+      <c r="B99" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>584</v>
+      </c>
+      <c r="B102" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>585</v>
+      </c>
+      <c r="B105" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>586</v>
+      </c>
+      <c r="B108" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>587</v>
+      </c>
+      <c r="B111" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>588</v>
+      </c>
+      <c r="B114" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>589</v>
+      </c>
+      <c r="B117" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>590</v>
+      </c>
+      <c r="B120" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>